--- a/QuantLibXL/Data2/XLS/CNY_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/CNY_Market.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
-    <sheet name="RepoRates" sheetId="68" r:id="rId2"/>
-    <sheet name="Shibor" sheetId="66" r:id="rId3"/>
+    <sheet name="Shibor" sheetId="66" r:id="rId2"/>
+    <sheet name="RepoRates" sheetId="68" r:id="rId3"/>
     <sheet name="Deposits" sheetId="15" r:id="rId4"/>
     <sheet name="OIS" sheetId="22" r:id="rId5"/>
     <sheet name="FRA" sheetId="16" r:id="rId6"/>
@@ -30,7 +30,7 @@
     <definedName name="Counter">Futures1M!$Z$4</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="EvaluationDate">'General Settings'!$I$9</definedName>
-    <definedName name="FamilyName" localSheetId="1">RepoRates!$K$2</definedName>
+    <definedName name="FamilyName" localSheetId="2">RepoRates!$K$2</definedName>
     <definedName name="FamilyName">'General Settings'!$I$18</definedName>
     <definedName name="FileOverwrite">'General Settings'!$I$8</definedName>
     <definedName name="FuturesCodes" localSheetId="6">Futures1M!$M$6:$M$17</definedName>
@@ -88,7 +88,7 @@
     <definedName name="Serialize">'General Settings'!$I$6</definedName>
     <definedName name="Swap3M4Y">Swap3M!$Y$12</definedName>
     <definedName name="Swap6M4Y">Swap7DRepo!$Y$12</definedName>
-    <definedName name="Traits" localSheetId="1">RepoRates!#REF!</definedName>
+    <definedName name="Traits" localSheetId="2">RepoRates!#REF!</definedName>
     <definedName name="Trigger">'General Settings'!$D$5</definedName>
     <definedName name="TriggerCounter">'General Settings'!$D$7</definedName>
     <definedName name="Volatility" localSheetId="6">Futures1M!$AI$2</definedName>
@@ -668,9 +668,6 @@
     <t>QM</t>
   </si>
   <si>
-    <t>3AB</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
@@ -756,6 +753,9 @@
   </si>
   <si>
     <t>IRS</t>
+  </si>
+  <si>
+    <t>Following</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1516,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2250,21 +2250,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -2450,74 +2447,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
         <stp/>
-        <stp>{450065A3-6CDE-4371-BA94-FFBF2D4A74FA}</stp>
-        <tr r="O4" s="22"/>
+        <stp>{B4611176-8590-48E0-9DFD-9D257F57B2AE}</stp>
+        <tr r="J2" s="15"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
         <stp/>
-        <stp>{4D6714F4-7E16-4BE0-B074-6B31A4B578B1}</stp>
-        <tr r="N4" s="68"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{40F81E4E-C189-45E2-B8DF-2F6404C7F9B0}</stp>
-        <tr r="H4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{95E459FE-877C-4563-B84A-C78E477C0CEA}</stp>
-        <tr r="N4" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{CE76B318-57C4-4FAE-8A99-C280B042A989}</stp>
-        <tr r="J2" s="15"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>No instrument defined.</v>
-        <stp/>
-        <stp>{1F37DBCA-B366-4BAB-9BE4-E29AAD9A3A07}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{25A75B5B-2E6E-40BD-960C-7D54913A4001}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{A8257EF0-FDAA-4801-97B1-0FD58A6EC510}</stp>
+        <stp>{3E7E2032-EB27-45D5-A9FF-727B9DA3AAAB}</stp>
         <tr r="P4" s="26"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Paused at 12:54:29</v>
-        <stp/>
-        <stp>{AF7BD4B9-B9E1-435C-8694-8C87C5942398}</stp>
-        <tr r="N4" s="16"/>
       </tp>
       <tp t="s">
         <v>No instrument defined.</v>
         <stp/>
-        <stp>{9D0BBDD2-1186-472E-938B-88E1AB6FC55E}</stp>
+        <stp>{9832B73A-6369-4402-96BD-C256FDA50643}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{99CE6EE1-DC8C-487F-BBB5-DF8D1AD5DB7F}</stp>
+        <tr r="N4" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{62CC0FB2-64E1-4121-A68D-04ED5FA0AE0E}</stp>
+        <tr r="H4" s="20"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{01C3C243-FFAF-44F2-93DD-DF4388371209}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{9F3EEA8D-DEEF-41C5-AB79-0D92148F495A}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>No instrument defined.</v>
+        <stp/>
+        <stp>{E2913FD0-886B-43B8-9A95-43780BAD20F5}</stp>
         <tr r="O5" s="17"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
         <stp/>
-        <stp>{EAF4216C-600F-43A6-8AAF-673830E9DC90}</stp>
+        <stp>{002CE7EC-3375-423D-A8D7-34D797D58528}</stp>
+        <tr r="N4" s="68"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{22D55AC6-E407-4569-97C2-87A087430582}</stp>
         <tr r="O4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:27:20</v>
+        <stp/>
+        <stp>{209B7576-ED86-45DF-836B-CBAC3DBCE7C8}</stp>
+        <tr r="N4" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2815,7 +2808,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2867,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="273" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="210"/>
       <c r="G4" s="5"/>
@@ -2885,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="223">
-        <v>41809.469108796293</v>
+        <v>41810.685590277775</v>
       </c>
       <c r="E5" s="210"/>
       <c r="G5" s="5"/>
@@ -2922,7 +2915,7 @@
       </c>
       <c r="D7" s="220">
         <f>_xll.ohTrigger(Deposits!P1,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!Z3,Swap7DRepo!Z3,,,OIS!Y3)</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E7" s="210"/>
       <c r="G7" s="5"/>
@@ -2966,7 +2959,7 @@
       </c>
       <c r="I9" s="272">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="J9" s="227"/>
     </row>
@@ -2977,10 +2970,10 @@
       <c r="E10" s="210"/>
       <c r="G10" s="228"/>
       <c r="H10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="272" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10" s="227"/>
     </row>
@@ -3100,10 +3093,10 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="209"/>
       <c r="C18" s="214" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="213" t="s">
         <v>208</v>
-      </c>
-      <c r="D18" s="213" t="s">
-        <v>209</v>
       </c>
       <c r="E18" s="210"/>
       <c r="G18" s="5"/>
@@ -3111,7 +3104,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -3136,10 +3129,10 @@
     <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="209"/>
       <c r="C20" s="214" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="210"/>
       <c r="G20" s="3"/>
@@ -3304,7 +3297,7 @@
       <c r="M2" s="111"/>
       <c r="N2" s="111"/>
       <c r="O2" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P2" s="111"/>
       <c r="Q2" s="111"/>
@@ -3344,7 +3337,7 @@
       <c r="X3" s="55"/>
       <c r="Y3" s="132">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="98"/>
     </row>
@@ -3373,7 +3366,7 @@
       <c r="N4" s="87"/>
       <c r="O4" s="106" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="P4" s="151" t="s">
         <v>128</v>
@@ -3419,7 +3412,7 @@
       </c>
       <c r="F5" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2X1S_Quote#0003</v>
+        <v>CNY2X1S_Quote#0000</v>
       </c>
       <c r="G5" s="14" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3430,7 +3423,7 @@
       <c r="K5" s="110"/>
       <c r="L5" s="146"/>
       <c r="M5" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N5" s="114" t="str">
         <f t="shared" ref="N5:N18" si="1">Currency&amp;$L5&amp;$M5&amp;$K5</f>
@@ -3487,7 +3480,7 @@
       </c>
       <c r="F6" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3X1S_Quote#0003</v>
+        <v>CNY3X1S_Quote#0000</v>
       </c>
       <c r="G6" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3498,7 +3491,7 @@
       <c r="K6" s="110"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3553,7 +3546,7 @@
       </c>
       <c r="F7" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4X1S_Quote#0003</v>
+        <v>CNY4X1S_Quote#0000</v>
       </c>
       <c r="G7" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3564,7 +3557,7 @@
       <c r="K7" s="110"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N7" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3619,7 +3612,7 @@
       </c>
       <c r="F8" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5X1S_Quote#0003</v>
+        <v>CNY5X1S_Quote#0000</v>
       </c>
       <c r="G8" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3630,7 +3623,7 @@
       <c r="K8" s="110"/>
       <c r="L8" s="146"/>
       <c r="M8" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3685,7 +3678,7 @@
       </c>
       <c r="F9" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6X1S_Quote#0003</v>
+        <v>CNY6X1S_Quote#0000</v>
       </c>
       <c r="G9" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3696,7 +3689,7 @@
       <c r="K9" s="110"/>
       <c r="L9" s="146"/>
       <c r="M9" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N9" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3751,7 +3744,7 @@
       </c>
       <c r="F10" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7X1S_Quote#0003</v>
+        <v>CNY7X1S_Quote#0000</v>
       </c>
       <c r="G10" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3762,7 +3755,7 @@
       <c r="K10" s="110"/>
       <c r="L10" s="146"/>
       <c r="M10" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N10" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3817,7 +3810,7 @@
       </c>
       <c r="F11" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY8X1S_Quote#0003</v>
+        <v>CNY8X1S_Quote#0000</v>
       </c>
       <c r="G11" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3828,7 +3821,7 @@
       <c r="K11" s="110"/>
       <c r="L11" s="146"/>
       <c r="M11" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N11" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3883,7 +3876,7 @@
       </c>
       <c r="F12" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9X1S_Quote#0003</v>
+        <v>CNY9X1S_Quote#0000</v>
       </c>
       <c r="G12" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3894,7 +3887,7 @@
       <c r="K12" s="110"/>
       <c r="L12" s="146"/>
       <c r="M12" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N12" s="114" t="str">
         <f t="shared" si="1"/>
@@ -3949,7 +3942,7 @@
       </c>
       <c r="F13" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY10X1S_Quote#0003</v>
+        <v>CNY10X1S_Quote#0000</v>
       </c>
       <c r="G13" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3960,7 +3953,7 @@
       <c r="K13" s="110"/>
       <c r="L13" s="146"/>
       <c r="M13" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N13" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4015,7 +4008,7 @@
       </c>
       <c r="F14" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY11X1S_Quote#0003</v>
+        <v>CNY11X1S_Quote#0000</v>
       </c>
       <c r="G14" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4026,7 +4019,7 @@
       <c r="K14" s="110"/>
       <c r="L14" s="146"/>
       <c r="M14" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N14" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4081,7 +4074,7 @@
       </c>
       <c r="F15" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY12X1S_Quote#0003</v>
+        <v>CNY12X1S_Quote#0000</v>
       </c>
       <c r="G15" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4092,7 +4085,7 @@
       <c r="K15" s="110"/>
       <c r="L15" s="146"/>
       <c r="M15" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N15" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4145,7 +4138,7 @@
       <c r="K16" s="110"/>
       <c r="L16" s="146"/>
       <c r="M16" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N16" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4189,7 +4182,7 @@
       <c r="K17" s="110"/>
       <c r="L17" s="146"/>
       <c r="M17" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N17" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4233,7 +4226,7 @@
       <c r="K18" s="110"/>
       <c r="L18" s="146"/>
       <c r="M18" s="146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N18" s="114" t="str">
         <f t="shared" si="1"/>
@@ -4334,7 +4327,7 @@
     <col min="12" max="12" width="3.85546875" style="234" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.28515625" style="234" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="234" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.140625" style="11"/>
     <col min="20" max="20" width="10.140625" style="11" customWidth="1"/>
@@ -4396,7 +4389,7 @@
       <c r="N2" s="111"/>
       <c r="O2" s="111"/>
       <c r="P2" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="111"/>
       <c r="R2" s="111"/>
@@ -4442,7 +4435,7 @@
       <c r="Y3" s="55"/>
       <c r="Z3" s="132">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="98"/>
       <c r="AB3" s="12"/>
@@ -4461,7 +4454,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="33" t="str">
         <f>Currency&amp;"_010_Sw"&amp;$C$5&amp;$D$5&amp;".xml"</f>
-        <v>CNY_010_SwQM3AB.xml</v>
+        <v>CNY_010_SwQM3S.xml</v>
       </c>
       <c r="F4" s="32" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(F5:F42,SerializationPath&amp;E4,FileOverwrite,Serialize),"---")</f>
@@ -4479,7 +4472,7 @@
       <c r="O4" s="87"/>
       <c r="P4" s="332" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="Q4" s="151" t="s">
         <v>128</v>
@@ -4524,15 +4517,15 @@
         <v>188</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E5" s="25" t="str">
         <f t="shared" ref="E5:E42" si="0">Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix</f>
-        <v>CNYQM3AB6M_Quote</v>
+        <v>CNYQM3S6M_Quote</v>
       </c>
       <c r="F5" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB6M_Quote#0003</v>
+        <v>CNYQM3S6M_Quote#0001</v>
       </c>
       <c r="G5" s="14" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4547,7 +4540,7 @@
         <v>188</v>
       </c>
       <c r="N5" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O5" s="144" t="str">
         <f t="shared" ref="O5:O42" si="1">Currency&amp;$M5&amp;$N5&amp;$L5&amp;"N"</f>
@@ -4603,15 +4596,15 @@
         <v>188</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB1Y_Quote</v>
+        <v>CNYQM3S1Y_Quote</v>
       </c>
       <c r="F6" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB1Y_Quote#0003</v>
+        <v>CNYQM3S1Y_Quote#0001</v>
       </c>
       <c r="G6" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4626,7 +4619,7 @@
         <v>188</v>
       </c>
       <c r="N6" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O6" s="144" t="str">
         <f t="shared" si="1"/>
@@ -4680,15 +4673,15 @@
         <v>188</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB15M_Quote</v>
+        <v>CNYQM3S15M_Quote</v>
       </c>
       <c r="F7" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB15M_Quote#0003</v>
+        <v>CNYQM3S15M_Quote#0001</v>
       </c>
       <c r="G7" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4703,7 +4696,7 @@
         <v>188</v>
       </c>
       <c r="N7" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O7" s="144" t="str">
         <f t="shared" si="1"/>
@@ -4757,15 +4750,15 @@
         <v>188</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB18M_Quote</v>
+        <v>CNYQM3S18M_Quote</v>
       </c>
       <c r="F8" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB18M_Quote#0003</v>
+        <v>CNYQM3S18M_Quote#0001</v>
       </c>
       <c r="G8" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4780,7 +4773,7 @@
         <v>188</v>
       </c>
       <c r="N8" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O8" s="144" t="str">
         <f t="shared" si="1"/>
@@ -4834,15 +4827,15 @@
         <v>188</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB21M_Quote</v>
+        <v>CNYQM3S21M_Quote</v>
       </c>
       <c r="F9" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB21M_Quote#0003</v>
+        <v>CNYQM3S21M_Quote#0001</v>
       </c>
       <c r="G9" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4857,7 +4850,7 @@
         <v>188</v>
       </c>
       <c r="N9" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O9" s="144" t="str">
         <f t="shared" si="1"/>
@@ -4911,15 +4904,15 @@
         <v>188</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB2Y_Quote</v>
+        <v>CNYQM3S2Y_Quote</v>
       </c>
       <c r="F10" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB2Y_Quote#0003</v>
+        <v>CNYQM3S2Y_Quote#0001</v>
       </c>
       <c r="G10" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4934,7 +4927,7 @@
         <v>188</v>
       </c>
       <c r="N10" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O10" s="144" t="str">
         <f t="shared" si="1"/>
@@ -4988,15 +4981,15 @@
         <v>188</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB3Y_Quote</v>
+        <v>CNYQM3S3Y_Quote</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB3Y_Quote#0003</v>
+        <v>CNYQM3S3Y_Quote#0001</v>
       </c>
       <c r="G11" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5011,7 +5004,7 @@
         <v>188</v>
       </c>
       <c r="N11" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O11" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5065,15 +5058,15 @@
         <v>188</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB4Y_Quote</v>
+        <v>CNYQM3S4Y_Quote</v>
       </c>
       <c r="F12" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB4Y_Quote#0003</v>
+        <v>CNYQM3S4Y_Quote#0001</v>
       </c>
       <c r="G12" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5088,7 +5081,7 @@
         <v>188</v>
       </c>
       <c r="N12" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O12" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5142,15 +5135,15 @@
         <v>188</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB5Y_Quote</v>
+        <v>CNYQM3S5Y_Quote</v>
       </c>
       <c r="F13" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB5Y_Quote#0003</v>
+        <v>CNYQM3S5Y_Quote#0001</v>
       </c>
       <c r="G13" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5165,7 +5158,7 @@
         <v>188</v>
       </c>
       <c r="N13" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O13" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5219,15 +5212,15 @@
         <v>188</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB6Y_Quote</v>
+        <v>CNYQM3S6Y_Quote</v>
       </c>
       <c r="F14" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB6Y_Quote#0003</v>
+        <v>CNYQM3S6Y_Quote#0001</v>
       </c>
       <c r="G14" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5242,7 +5235,7 @@
         <v>188</v>
       </c>
       <c r="N14" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O14" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5296,15 +5289,15 @@
         <v>188</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB7Y_Quote</v>
+        <v>CNYQM3S7Y_Quote</v>
       </c>
       <c r="F15" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB7Y_Quote#0003</v>
+        <v>CNYQM3S7Y_Quote#0001</v>
       </c>
       <c r="G15" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5319,7 +5312,7 @@
         <v>188</v>
       </c>
       <c r="N15" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O15" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5373,15 +5366,15 @@
         <v>188</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB8Y_Quote</v>
+        <v>CNYQM3S8Y_Quote</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB8Y_Quote#0003</v>
+        <v>CNYQM3S8Y_Quote#0001</v>
       </c>
       <c r="G16" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5396,7 +5389,7 @@
         <v>188</v>
       </c>
       <c r="N16" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O16" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5450,15 +5443,15 @@
         <v>188</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB9Y_Quote</v>
+        <v>CNYQM3S9Y_Quote</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB9Y_Quote#0003</v>
+        <v>CNYQM3S9Y_Quote#0001</v>
       </c>
       <c r="G17" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5473,7 +5466,7 @@
         <v>188</v>
       </c>
       <c r="N17" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O17" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5527,15 +5520,15 @@
         <v>188</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB10Y_Quote</v>
+        <v>CNYQM3S10Y_Quote</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB10Y_Quote#0003</v>
+        <v>CNYQM3S10Y_Quote#0001</v>
       </c>
       <c r="G18" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5550,7 +5543,7 @@
         <v>188</v>
       </c>
       <c r="N18" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O18" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5604,15 +5597,15 @@
         <v>188</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB11Y_Quote</v>
+        <v>CNYQM3S11Y_Quote</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB11Y_Quote#0003</v>
+        <v>CNYQM3S11Y_Quote#0001</v>
       </c>
       <c r="G19" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5627,7 +5620,7 @@
         <v>188</v>
       </c>
       <c r="N19" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O19" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5681,15 +5674,15 @@
         <v>188</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB12Y_Quote</v>
+        <v>CNYQM3S12Y_Quote</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB12Y_Quote#0003</v>
+        <v>CNYQM3S12Y_Quote#0001</v>
       </c>
       <c r="G20" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5704,7 +5697,7 @@
         <v>188</v>
       </c>
       <c r="N20" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O20" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5758,15 +5751,15 @@
         <v>188</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB13Y_Quote</v>
+        <v>CNYQM3S13Y_Quote</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB13Y_Quote#0003</v>
+        <v>CNYQM3S13Y_Quote#0001</v>
       </c>
       <c r="G21" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5781,7 +5774,7 @@
         <v>188</v>
       </c>
       <c r="N21" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O21" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5835,15 +5828,15 @@
         <v>188</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB14Y_Quote</v>
+        <v>CNYQM3S14Y_Quote</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB14Y_Quote#0003</v>
+        <v>CNYQM3S14Y_Quote#0001</v>
       </c>
       <c r="G22" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5858,7 +5851,7 @@
         <v>188</v>
       </c>
       <c r="N22" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O22" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5912,15 +5905,15 @@
         <v>188</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB15Y_Quote</v>
+        <v>CNYQM3S15Y_Quote</v>
       </c>
       <c r="F23" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB15Y_Quote#0003</v>
+        <v>CNYQM3S15Y_Quote#0001</v>
       </c>
       <c r="G23" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5935,7 +5928,7 @@
         <v>188</v>
       </c>
       <c r="N23" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O23" s="144" t="str">
         <f t="shared" si="1"/>
@@ -5989,15 +5982,15 @@
         <v>188</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E24" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB16Y_Quote</v>
+        <v>CNYQM3S16Y_Quote</v>
       </c>
       <c r="F24" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB16Y_Quote#0003</v>
+        <v>CNYQM3S16Y_Quote#0001</v>
       </c>
       <c r="G24" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6012,7 +6005,7 @@
         <v>188</v>
       </c>
       <c r="N24" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O24" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6066,15 +6059,15 @@
         <v>188</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB17Y_Quote</v>
+        <v>CNYQM3S17Y_Quote</v>
       </c>
       <c r="F25" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB17Y_Quote#0003</v>
+        <v>CNYQM3S17Y_Quote#0001</v>
       </c>
       <c r="G25" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6089,7 +6082,7 @@
         <v>188</v>
       </c>
       <c r="N25" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O25" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6143,15 +6136,15 @@
         <v>188</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E26" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB18Y_Quote</v>
+        <v>CNYQM3S18Y_Quote</v>
       </c>
       <c r="F26" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB18Y_Quote#0003</v>
+        <v>CNYQM3S18Y_Quote#0001</v>
       </c>
       <c r="G26" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6166,7 +6159,7 @@
         <v>188</v>
       </c>
       <c r="N26" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O26" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6220,15 +6213,15 @@
         <v>188</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB19Y_Quote</v>
+        <v>CNYQM3S19Y_Quote</v>
       </c>
       <c r="F27" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB19Y_Quote#0003</v>
+        <v>CNYQM3S19Y_Quote#0001</v>
       </c>
       <c r="G27" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6243,7 +6236,7 @@
         <v>188</v>
       </c>
       <c r="N27" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O27" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6297,15 +6290,15 @@
         <v>188</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E28" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB20Y_Quote</v>
+        <v>CNYQM3S20Y_Quote</v>
       </c>
       <c r="F28" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB20Y_Quote#0003</v>
+        <v>CNYQM3S20Y_Quote#0001</v>
       </c>
       <c r="G28" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6320,7 +6313,7 @@
         <v>188</v>
       </c>
       <c r="N28" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O28" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6374,15 +6367,15 @@
         <v>188</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E29" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB21Y_Quote</v>
+        <v>CNYQM3S21Y_Quote</v>
       </c>
       <c r="F29" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB21Y_Quote#0003</v>
+        <v>CNYQM3S21Y_Quote#0001</v>
       </c>
       <c r="G29" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6397,7 +6390,7 @@
         <v>188</v>
       </c>
       <c r="N29" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O29" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6451,15 +6444,15 @@
         <v>188</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E30" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB22Y_Quote</v>
+        <v>CNYQM3S22Y_Quote</v>
       </c>
       <c r="F30" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB22Y_Quote#0003</v>
+        <v>CNYQM3S22Y_Quote#0001</v>
       </c>
       <c r="G30" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6474,7 +6467,7 @@
         <v>188</v>
       </c>
       <c r="N30" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O30" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6528,15 +6521,15 @@
         <v>188</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E31" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB23Y_Quote</v>
+        <v>CNYQM3S23Y_Quote</v>
       </c>
       <c r="F31" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB23Y_Quote#0003</v>
+        <v>CNYQM3S23Y_Quote#0001</v>
       </c>
       <c r="G31" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6551,7 +6544,7 @@
         <v>188</v>
       </c>
       <c r="N31" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O31" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6605,15 +6598,15 @@
         <v>188</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E32" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB24Y_Quote</v>
+        <v>CNYQM3S24Y_Quote</v>
       </c>
       <c r="F32" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB24Y_Quote#0003</v>
+        <v>CNYQM3S24Y_Quote#0001</v>
       </c>
       <c r="G32" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6628,7 +6621,7 @@
         <v>188</v>
       </c>
       <c r="N32" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O32" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6682,15 +6675,15 @@
         <v>188</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E33" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB25Y_Quote</v>
+        <v>CNYQM3S25Y_Quote</v>
       </c>
       <c r="F33" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB25Y_Quote#0003</v>
+        <v>CNYQM3S25Y_Quote#0001</v>
       </c>
       <c r="G33" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6705,7 +6698,7 @@
         <v>188</v>
       </c>
       <c r="N33" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O33" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6759,15 +6752,15 @@
         <v>188</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E34" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB26Y_Quote</v>
+        <v>CNYQM3S26Y_Quote</v>
       </c>
       <c r="F34" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB26Y_Quote#0003</v>
+        <v>CNYQM3S26Y_Quote#0001</v>
       </c>
       <c r="G34" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6782,7 +6775,7 @@
         <v>188</v>
       </c>
       <c r="N34" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O34" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6836,15 +6829,15 @@
         <v>188</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E35" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB27Y_Quote</v>
+        <v>CNYQM3S27Y_Quote</v>
       </c>
       <c r="F35" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB27Y_Quote#0003</v>
+        <v>CNYQM3S27Y_Quote#0001</v>
       </c>
       <c r="G35" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6859,7 +6852,7 @@
         <v>188</v>
       </c>
       <c r="N35" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O35" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6913,15 +6906,15 @@
         <v>188</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E36" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB28Y_Quote</v>
+        <v>CNYQM3S28Y_Quote</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB28Y_Quote#0003</v>
+        <v>CNYQM3S28Y_Quote#0001</v>
       </c>
       <c r="G36" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6936,7 +6929,7 @@
         <v>188</v>
       </c>
       <c r="N36" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O36" s="144" t="str">
         <f t="shared" si="1"/>
@@ -6990,15 +6983,15 @@
         <v>188</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E37" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB29Y_Quote</v>
+        <v>CNYQM3S29Y_Quote</v>
       </c>
       <c r="F37" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB29Y_Quote#0003</v>
+        <v>CNYQM3S29Y_Quote#0001</v>
       </c>
       <c r="G37" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7013,7 +7006,7 @@
         <v>188</v>
       </c>
       <c r="N37" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O37" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7067,15 +7060,15 @@
         <v>188</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E38" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB30Y_Quote</v>
+        <v>CNYQM3S30Y_Quote</v>
       </c>
       <c r="F38" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB30Y_Quote#0003</v>
+        <v>CNYQM3S30Y_Quote#0001</v>
       </c>
       <c r="G38" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7090,7 +7083,7 @@
         <v>188</v>
       </c>
       <c r="N38" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O38" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7144,15 +7137,15 @@
         <v>188</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E39" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB35Y_Quote</v>
+        <v>CNYQM3S35Y_Quote</v>
       </c>
       <c r="F39" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB35Y_Quote#0003</v>
+        <v>CNYQM3S35Y_Quote#0001</v>
       </c>
       <c r="G39" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7167,7 +7160,7 @@
         <v>188</v>
       </c>
       <c r="N39" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O39" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7221,15 +7214,15 @@
         <v>188</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E40" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB40Y_Quote</v>
+        <v>CNYQM3S40Y_Quote</v>
       </c>
       <c r="F40" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB40Y_Quote#0003</v>
+        <v>CNYQM3S40Y_Quote#0001</v>
       </c>
       <c r="G40" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -7244,7 +7237,7 @@
         <v>188</v>
       </c>
       <c r="N40" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O40" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7298,15 +7291,15 @@
         <v>188</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E41" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB50Y_Quote</v>
+        <v>CNYQM3S50Y_Quote</v>
       </c>
       <c r="F41" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB50Y_Quote#0003</v>
+        <v>CNYQM3S50Y_Quote#0001</v>
       </c>
       <c r="G41" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -7321,7 +7314,7 @@
         <v>188</v>
       </c>
       <c r="N41" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O41" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7375,15 +7368,15 @@
         <v>188</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E42" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CNYQM3AB60Y_Quote</v>
+        <v>CNYQM3S60Y_Quote</v>
       </c>
       <c r="F42" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3AB60Y_Quote#0003</v>
+        <v>CNYQM3S60Y_Quote#0001</v>
       </c>
       <c r="G42" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -7398,7 +7391,7 @@
         <v>188</v>
       </c>
       <c r="N42" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O42" s="144" t="str">
         <f t="shared" si="1"/>
@@ -7485,7 +7478,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>Contributors</formula1>
     </dataValidation>
@@ -7524,8 +7517,7 @@
     <col min="22" max="22" width="2.7109375" style="38" customWidth="1"/>
     <col min="23" max="23" width="5.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.7109375" style="38" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="38" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="2.7109375" style="38" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="38"/>
   </cols>
@@ -7578,7 +7570,7 @@
       <c r="N2" s="134"/>
       <c r="O2" s="134"/>
       <c r="P2" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="111"/>
       <c r="R2" s="111"/>
@@ -7624,7 +7616,7 @@
       <c r="Y3" s="55"/>
       <c r="Z3" s="132">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="98"/>
       <c r="AB3" s="12"/>
@@ -7646,7 +7638,7 @@
         <v>CNY_010_SwSM6AB.xml</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -7660,7 +7652,7 @@
       <c r="O4" s="87"/>
       <c r="P4" s="106" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="Q4" s="151" t="s">
         <v>128</v>
@@ -7702,10 +7694,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E5" s="25" t="str">
         <f t="shared" ref="E5:E42" si="0">Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix</f>
@@ -7713,7 +7705,7 @@
       </c>
       <c r="F5" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB1M_Quote#0004</v>
+        <v>CNYSM6AB1M_Quote#0000</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -7726,13 +7718,13 @@
         <v>1M</v>
       </c>
       <c r="M5" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N5" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="146" t="s">
-        <v>218</v>
-      </c>
       <c r="O5" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M5&amp;$N5&amp;$L5</f>
+        <f t="shared" ref="O5:O42" si="1">SUBSTITUTE(Currency,"Y","")&amp;$M5&amp;$N5&amp;$L5</f>
         <v>CNNDIRS1M</v>
       </c>
       <c r="P5" s="114" t="str">
@@ -7782,10 +7774,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -7793,7 +7785,7 @@
       </c>
       <c r="F6" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB3M_Quote#0004</v>
+        <v>CNYSM6AB3M_Quote#0000</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -7802,17 +7794,17 @@
       <c r="H6" s="19"/>
       <c r="K6" s="52"/>
       <c r="L6" s="115" t="str">
-        <f t="shared" ref="L6:L42" si="1">B6</f>
+        <f t="shared" ref="L6:L42" si="2">B6</f>
         <v>3M</v>
       </c>
       <c r="M6" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="146" t="s">
-        <v>218</v>
-      </c>
       <c r="O6" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M6&amp;$N6&amp;$L6</f>
+        <f t="shared" si="1"/>
         <v>CNNDIRS3M</v>
       </c>
       <c r="P6" s="114" t="str">
@@ -7854,16 +7846,16 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="137"/>
     </row>
-    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="96" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -7871,7 +7863,7 @@
       </c>
       <c r="F7" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB6M_Quote#0003</v>
+        <v>CNYSM6AB6M_Quote#0000</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -7880,17 +7872,17 @@
       <c r="H7" s="19"/>
       <c r="K7" s="52"/>
       <c r="L7" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>6M</v>
+      </c>
+      <c r="M7" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N7" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O7" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>6M</v>
-      </c>
-      <c r="M7" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N7" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O7" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M7&amp;$N7&amp;$L7</f>
         <v>CNNDIRS6M</v>
       </c>
       <c r="P7" s="114" t="str">
@@ -7927,7 +7919,7 @@
       <c r="AA7" s="98"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
+      <c r="AD7"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="203"/>
       <c r="AG7" s="137"/>
@@ -7938,10 +7930,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -7949,7 +7941,7 @@
       </c>
       <c r="F8" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB9M_Quote#0004</v>
+        <v>CNYSM6AB9M_Quote#0000</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -7958,27 +7950,27 @@
       <c r="H8" s="19"/>
       <c r="K8" s="52"/>
       <c r="L8" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>9M</v>
+      </c>
+      <c r="M8" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>9M</v>
-      </c>
-      <c r="M8" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O8" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M8&amp;$N8&amp;$L8</f>
         <v>CNNDIRS9M</v>
       </c>
       <c r="P8" s="114" t="str">
         <v>CNNDIRS9M=TRHK</v>
       </c>
       <c r="Q8" s="109">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="R8" s="109">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="S8" s="109">
         <v>0</v>
@@ -7988,7 +7980,7 @@
       </c>
       <c r="U8" s="113">
         <f>_xll.qlMidEquivalent($Q8,$R8,$S8,$T8)</f>
-        <v>3.4000000000000004</v>
+        <v>3.3899999999999997</v>
       </c>
       <c r="V8" s="111"/>
       <c r="W8" s="112">
@@ -7996,7 +7988,7 @@
       </c>
       <c r="X8" s="111"/>
       <c r="Y8" s="162">
-        <v>3.4000000000000004</v>
+        <v>3.3899999999999997</v>
       </c>
       <c r="Z8" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
@@ -8016,10 +8008,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8027,7 +8019,7 @@
       </c>
       <c r="F9" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB1Y_Quote#0003</v>
+        <v>CNYSM6AB1Y_Quote#0000</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8036,27 +8028,27 @@
       <c r="H9" s="19"/>
       <c r="K9" s="52"/>
       <c r="L9" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>1Y</v>
+      </c>
+      <c r="M9" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>1Y</v>
-      </c>
-      <c r="M9" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N9" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O9" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M9&amp;$N9&amp;$L9</f>
         <v>CNNDIRS1Y</v>
       </c>
       <c r="P9" s="114" t="str">
         <v>CNNDIRS1Y=TRHK</v>
       </c>
       <c r="Q9" s="109">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="R9" s="109">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="S9" s="109">
         <v>0</v>
@@ -8066,7 +8058,7 @@
       </c>
       <c r="U9" s="113">
         <f>_xll.qlMidEquivalent($Q9,$R9,$S9,$T9)</f>
-        <v>3.4299999999999997</v>
+        <v>3.41</v>
       </c>
       <c r="V9" s="111"/>
       <c r="W9" s="112">
@@ -8074,7 +8066,7 @@
       </c>
       <c r="X9" s="111"/>
       <c r="Y9" s="162">
-        <v>3.4299999999999997</v>
+        <v>3.41</v>
       </c>
       <c r="Z9" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
@@ -8094,10 +8086,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E10" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8105,7 +8097,7 @@
       </c>
       <c r="F10" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB2Y_Quote#0004</v>
+        <v>CNYSM6AB2Y_Quote#0000</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8114,27 +8106,27 @@
       <c r="H10" s="19"/>
       <c r="K10" s="52"/>
       <c r="L10" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>2Y</v>
+      </c>
+      <c r="M10" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O10" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>2Y</v>
-      </c>
-      <c r="M10" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O10" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M10&amp;$N10&amp;$L10</f>
         <v>CNNDIRS2Y</v>
       </c>
       <c r="P10" s="114" t="str">
         <v>CNNDIRS2Y=TRHK</v>
       </c>
       <c r="Q10" s="109">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="R10" s="109">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="S10" s="109">
         <v>0</v>
@@ -8144,7 +8136,7 @@
       </c>
       <c r="U10" s="113">
         <f>_xll.qlMidEquivalent($Q10,$R10,$S10,$T10)</f>
-        <v>3.5300000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="V10" s="111"/>
       <c r="W10" s="112">
@@ -8152,7 +8144,7 @@
       </c>
       <c r="X10" s="111"/>
       <c r="Y10" s="162">
-        <v>3.5300000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="Z10" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
@@ -8172,10 +8164,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8183,7 +8175,7 @@
       </c>
       <c r="F11" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB3Y_Quote#0004</v>
+        <v>CNYSM6AB3Y_Quote#0000</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8192,27 +8184,27 @@
       <c r="H11" s="19"/>
       <c r="K11" s="52"/>
       <c r="L11" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>3Y</v>
+      </c>
+      <c r="M11" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O11" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>3Y</v>
-      </c>
-      <c r="M11" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N11" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O11" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M11&amp;$N11&amp;$L11</f>
         <v>CNNDIRS3Y</v>
       </c>
       <c r="P11" s="114" t="str">
         <v>CNNDIRS3Y=TRHK</v>
       </c>
       <c r="Q11" s="109">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="R11" s="109">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
       <c r="S11" s="109">
         <v>0</v>
@@ -8222,7 +8214,7 @@
       </c>
       <c r="U11" s="113">
         <f>_xll.qlMidEquivalent($Q11,$R11,$S11,$T11)</f>
-        <v>3.6399999999999997</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="112">
@@ -8230,7 +8222,7 @@
       </c>
       <c r="X11" s="111"/>
       <c r="Y11" s="162">
-        <v>3.6399999999999997</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="Z11" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
@@ -8250,10 +8242,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E12" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8261,7 +8253,7 @@
       </c>
       <c r="F12" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB4Y_Quote#0004</v>
+        <v>CNYSM6AB4Y_Quote#0000</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -8270,27 +8262,27 @@
       <c r="H12" s="19"/>
       <c r="K12" s="52"/>
       <c r="L12" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>4Y</v>
+      </c>
+      <c r="M12" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>4Y</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N12" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O12" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M12&amp;$N12&amp;$L12</f>
         <v>CNNDIRS4Y</v>
       </c>
       <c r="P12" s="114" t="str">
         <v>CNNDIRS4Y=TRHK</v>
       </c>
       <c r="Q12" s="109">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="R12" s="109">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="S12" s="109">
         <v>0</v>
@@ -8300,7 +8292,7 @@
       </c>
       <c r="U12" s="113">
         <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
-        <v>3.75</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="V12" s="111"/>
       <c r="W12" s="112">
@@ -8308,7 +8300,7 @@
       </c>
       <c r="X12" s="111"/>
       <c r="Y12" s="162">
-        <v>3.75</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="Z12" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
@@ -8328,10 +8320,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E13" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8339,7 +8331,7 @@
       </c>
       <c r="F13" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB5Y_Quote#0004</v>
+        <v>CNYSM6AB5Y_Quote#0000</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -8348,27 +8340,27 @@
       <c r="H13" s="19"/>
       <c r="K13" s="52"/>
       <c r="L13" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>5Y</v>
+      </c>
+      <c r="M13" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O13" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>5Y</v>
-      </c>
-      <c r="M13" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N13" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M13&amp;$N13&amp;$L13</f>
         <v>CNNDIRS5Y</v>
       </c>
       <c r="P13" s="114" t="str">
         <v>CNNDIRS5Y=TRHK</v>
       </c>
       <c r="Q13" s="109">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="R13" s="109">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="S13" s="109">
         <v>0</v>
@@ -8378,7 +8370,7 @@
       </c>
       <c r="U13" s="113">
         <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="V13" s="111"/>
       <c r="W13" s="112">
@@ -8386,7 +8378,7 @@
       </c>
       <c r="X13" s="111"/>
       <c r="Y13" s="162">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="Z13" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
@@ -8406,10 +8398,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E14" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8417,7 +8409,7 @@
       </c>
       <c r="F14" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB6Y_Quote#0004</v>
+        <v>CNYSM6AB6Y_Quote#0000</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -8426,27 +8418,27 @@
       <c r="H14" s="19"/>
       <c r="K14" s="52"/>
       <c r="L14" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>6Y</v>
+      </c>
+      <c r="M14" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>6Y</v>
-      </c>
-      <c r="M14" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N14" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O14" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M14&amp;$N14&amp;$L14</f>
         <v>CNNDIRS6Y</v>
       </c>
       <c r="P14" s="114" t="str">
         <v>CNNDIRS6Y=TRHK</v>
       </c>
       <c r="Q14" s="109">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="R14" s="109">
-        <v>3.98</v>
+        <v>3.94</v>
       </c>
       <c r="S14" s="109">
         <v>0</v>
@@ -8456,7 +8448,7 @@
       </c>
       <c r="U14" s="113">
         <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
-        <v>3.9299999999999997</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="V14" s="111"/>
       <c r="W14" s="112">
@@ -8464,7 +8456,7 @@
       </c>
       <c r="X14" s="111"/>
       <c r="Y14" s="162">
-        <v>3.9299999999999997</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="Z14" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
@@ -8484,10 +8476,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E15" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8495,7 +8487,7 @@
       </c>
       <c r="F15" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB7Y_Quote#0004</v>
+        <v>CNYSM6AB7Y_Quote#0000</v>
       </c>
       <c r="G15" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -8504,27 +8496,27 @@
       <c r="H15" s="19"/>
       <c r="K15" s="52"/>
       <c r="L15" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>7Y</v>
+      </c>
+      <c r="M15" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O15" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>7Y</v>
-      </c>
-      <c r="M15" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N15" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M15&amp;$N15&amp;$L15</f>
         <v>CNNDIRS7Y</v>
       </c>
       <c r="P15" s="114" t="str">
         <v>CNNDIRS7Y=TRHK</v>
       </c>
       <c r="Q15" s="109">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="R15" s="109">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="S15" s="109">
         <v>0</v>
@@ -8534,7 +8526,7 @@
       </c>
       <c r="U15" s="113">
         <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="V15" s="111"/>
       <c r="W15" s="112">
@@ -8542,7 +8534,7 @@
       </c>
       <c r="X15" s="111"/>
       <c r="Y15" s="162">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="Z15" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
@@ -8562,10 +8554,10 @@
         <v>52</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E16" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8573,7 +8565,7 @@
       </c>
       <c r="F16" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB8Y_Quote#0004</v>
+        <v>CNYSM6AB8Y_Quote#0000</v>
       </c>
       <c r="G16" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -8582,27 +8574,27 @@
       <c r="H16" s="19"/>
       <c r="K16" s="52"/>
       <c r="L16" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>8Y</v>
+      </c>
+      <c r="M16" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N16" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O16" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>8Y</v>
-      </c>
-      <c r="M16" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N16" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O16" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M16&amp;$N16&amp;$L16</f>
         <v>CNNDIRS8Y</v>
       </c>
       <c r="P16" s="114" t="str">
         <v>CNNDIRS8Y=TRHK</v>
       </c>
       <c r="Q16" s="109">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
       <c r="R16" s="109">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="S16" s="109">
         <v>0</v>
@@ -8612,7 +8604,7 @@
       </c>
       <c r="U16" s="113">
         <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="V16" s="111"/>
       <c r="W16" s="112">
@@ -8620,7 +8612,7 @@
       </c>
       <c r="X16" s="111"/>
       <c r="Y16" s="162">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
@@ -8640,10 +8632,10 @@
         <v>51</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E17" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8651,7 +8643,7 @@
       </c>
       <c r="F17" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB9Y_Quote#0004</v>
+        <v>CNYSM6AB9Y_Quote#0000</v>
       </c>
       <c r="G17" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -8660,27 +8652,27 @@
       <c r="H17" s="19"/>
       <c r="K17" s="52"/>
       <c r="L17" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>9Y</v>
+      </c>
+      <c r="M17" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N17" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O17" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>9Y</v>
-      </c>
-      <c r="M17" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N17" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O17" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M17&amp;$N17&amp;$L17</f>
         <v>CNNDIRS9Y</v>
       </c>
       <c r="P17" s="114" t="str">
         <v>CNNDIRS9Y=TRHK</v>
       </c>
       <c r="Q17" s="109">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="R17" s="109">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="S17" s="109">
         <v>0</v>
@@ -8690,7 +8682,7 @@
       </c>
       <c r="U17" s="113">
         <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="V17" s="111"/>
       <c r="W17" s="112">
@@ -8698,7 +8690,7 @@
       </c>
       <c r="X17" s="111"/>
       <c r="Y17" s="162">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="Z17" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
@@ -8718,10 +8710,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E18" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8729,7 +8721,7 @@
       </c>
       <c r="F18" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB10Y_Quote#0003</v>
+        <v>CNYSM6AB10Y_Quote#0000</v>
       </c>
       <c r="G18" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -8738,27 +8730,27 @@
       <c r="H18" s="19"/>
       <c r="K18" s="52"/>
       <c r="L18" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>10Y</v>
+      </c>
+      <c r="M18" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>10Y</v>
-      </c>
-      <c r="M18" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N18" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O18" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M18&amp;$N18&amp;$L18</f>
         <v>CNNDIRS10Y</v>
       </c>
       <c r="P18" s="114" t="str">
         <v>CNNDIRS10Y=TRHK</v>
       </c>
       <c r="Q18" s="109">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="R18" s="109">
-        <v>4.16</v>
+        <v>4.12</v>
       </c>
       <c r="S18" s="109">
         <v>0</v>
@@ -8768,7 +8760,7 @@
       </c>
       <c r="U18" s="113">
         <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
-        <v>4.1099999999999994</v>
+        <v>4.07</v>
       </c>
       <c r="V18" s="111"/>
       <c r="W18" s="112">
@@ -8776,7 +8768,7 @@
       </c>
       <c r="X18" s="111"/>
       <c r="Y18" s="162">
-        <v>4.1099999999999994</v>
+        <v>4.07</v>
       </c>
       <c r="Z18" s="108">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
@@ -8796,10 +8788,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E19" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8807,7 +8799,7 @@
       </c>
       <c r="F19" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB11Y_Quote#0003</v>
+        <v>CNYSM6AB11Y_Quote#0000</v>
       </c>
       <c r="G19" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -8816,17 +8808,17 @@
       <c r="H19" s="19"/>
       <c r="K19" s="52"/>
       <c r="L19" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>11Y</v>
+      </c>
+      <c r="M19" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O19" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>11Y</v>
-      </c>
-      <c r="M19" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N19" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O19" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M19&amp;$N19&amp;$L19</f>
         <v>CNNDIRS11Y</v>
       </c>
       <c r="P19" s="114" t="str">
@@ -8874,10 +8866,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E20" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8885,7 +8877,7 @@
       </c>
       <c r="F20" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB12Y_Quote#0003</v>
+        <v>CNYSM6AB12Y_Quote#0000</v>
       </c>
       <c r="G20" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -8894,17 +8886,17 @@
       <c r="H20" s="19"/>
       <c r="K20" s="52"/>
       <c r="L20" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>12Y</v>
+      </c>
+      <c r="M20" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O20" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>12Y</v>
-      </c>
-      <c r="M20" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N20" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O20" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M20&amp;$N20&amp;$L20</f>
         <v>CNNDIRS12Y</v>
       </c>
       <c r="P20" s="114" t="str">
@@ -8952,10 +8944,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E21" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8963,7 +8955,7 @@
       </c>
       <c r="F21" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB13Y_Quote#0003</v>
+        <v>CNYSM6AB13Y_Quote#0000</v>
       </c>
       <c r="G21" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8972,17 +8964,17 @@
       <c r="H21" s="19"/>
       <c r="K21" s="52"/>
       <c r="L21" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>13Y</v>
+      </c>
+      <c r="M21" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N21" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>13Y</v>
-      </c>
-      <c r="M21" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N21" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O21" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M21&amp;$N21&amp;$L21</f>
         <v>CNNDIRS13Y</v>
       </c>
       <c r="P21" s="114" t="str">
@@ -9030,10 +9022,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E22" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9041,7 +9033,7 @@
       </c>
       <c r="F22" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB14Y_Quote#0003</v>
+        <v>CNYSM6AB14Y_Quote#0000</v>
       </c>
       <c r="G22" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9050,17 +9042,17 @@
       <c r="H22" s="19"/>
       <c r="K22" s="52"/>
       <c r="L22" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>14Y</v>
+      </c>
+      <c r="M22" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N22" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>14Y</v>
-      </c>
-      <c r="M22" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N22" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O22" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M22&amp;$N22&amp;$L22</f>
         <v>CNNDIRS14Y</v>
       </c>
       <c r="P22" s="114" t="str">
@@ -9108,10 +9100,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E23" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9119,7 +9111,7 @@
       </c>
       <c r="F23" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB15Y_Quote#0003</v>
+        <v>CNYSM6AB15Y_Quote#0000</v>
       </c>
       <c r="G23" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9128,17 +9120,17 @@
       <c r="H23" s="19"/>
       <c r="K23" s="52"/>
       <c r="L23" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>15Y</v>
+      </c>
+      <c r="M23" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>15Y</v>
-      </c>
-      <c r="M23" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N23" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O23" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M23&amp;$N23&amp;$L23</f>
         <v>CNNDIRS15Y</v>
       </c>
       <c r="P23" s="114" t="str">
@@ -9186,10 +9178,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9197,7 +9189,7 @@
       </c>
       <c r="F24" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB16Y_Quote#0003</v>
+        <v>CNYSM6AB16Y_Quote#0000</v>
       </c>
       <c r="G24" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9206,17 +9198,17 @@
       <c r="H24" s="19"/>
       <c r="K24" s="52"/>
       <c r="L24" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>16Y</v>
+      </c>
+      <c r="M24" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N24" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>16Y</v>
-      </c>
-      <c r="M24" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N24" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O24" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M24&amp;$N24&amp;$L24</f>
         <v>CNNDIRS16Y</v>
       </c>
       <c r="P24" s="114" t="str">
@@ -9264,10 +9256,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9275,7 +9267,7 @@
       </c>
       <c r="F25" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB17Y_Quote#0003</v>
+        <v>CNYSM6AB17Y_Quote#0000</v>
       </c>
       <c r="G25" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9284,17 +9276,17 @@
       <c r="H25" s="19"/>
       <c r="K25" s="52"/>
       <c r="L25" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>17Y</v>
+      </c>
+      <c r="M25" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>17Y</v>
-      </c>
-      <c r="M25" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O25" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M25&amp;$N25&amp;$L25</f>
         <v>CNNDIRS17Y</v>
       </c>
       <c r="P25" s="114" t="str">
@@ -9342,10 +9334,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9353,7 +9345,7 @@
       </c>
       <c r="F26" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB18Y_Quote#0003</v>
+        <v>CNYSM6AB18Y_Quote#0000</v>
       </c>
       <c r="G26" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -9362,17 +9354,17 @@
       <c r="H26" s="19"/>
       <c r="K26" s="52"/>
       <c r="L26" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>18Y</v>
+      </c>
+      <c r="M26" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N26" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>18Y</v>
-      </c>
-      <c r="M26" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N26" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O26" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M26&amp;$N26&amp;$L26</f>
         <v>CNNDIRS18Y</v>
       </c>
       <c r="P26" s="114" t="str">
@@ -9420,10 +9412,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9431,7 +9423,7 @@
       </c>
       <c r="F27" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB19Y_Quote#0003</v>
+        <v>CNYSM6AB19Y_Quote#0000</v>
       </c>
       <c r="G27" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -9440,17 +9432,17 @@
       <c r="H27" s="19"/>
       <c r="K27" s="52"/>
       <c r="L27" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>19Y</v>
+      </c>
+      <c r="M27" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N27" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>19Y</v>
-      </c>
-      <c r="M27" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N27" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O27" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M27&amp;$N27&amp;$L27</f>
         <v>CNNDIRS19Y</v>
       </c>
       <c r="P27" s="114" t="str">
@@ -9498,10 +9490,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E28" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9509,7 +9501,7 @@
       </c>
       <c r="F28" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB20Y_Quote#0003</v>
+        <v>CNYSM6AB20Y_Quote#0000</v>
       </c>
       <c r="G28" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -9518,17 +9510,17 @@
       <c r="H28" s="19"/>
       <c r="K28" s="52"/>
       <c r="L28" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>20Y</v>
+      </c>
+      <c r="M28" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>20Y</v>
-      </c>
-      <c r="M28" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O28" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M28&amp;$N28&amp;$L28</f>
         <v>CNNDIRS20Y</v>
       </c>
       <c r="P28" s="114" t="str">
@@ -9576,10 +9568,10 @@
         <v>39</v>
       </c>
       <c r="C29" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E29" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9587,7 +9579,7 @@
       </c>
       <c r="F29" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB21Y_Quote#0003</v>
+        <v>CNYSM6AB21Y_Quote#0000</v>
       </c>
       <c r="G29" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -9596,17 +9588,17 @@
       <c r="H29" s="19"/>
       <c r="K29" s="52"/>
       <c r="L29" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>21Y</v>
+      </c>
+      <c r="M29" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N29" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>21Y</v>
-      </c>
-      <c r="M29" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N29" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O29" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M29&amp;$N29&amp;$L29</f>
         <v>CNNDIRS21Y</v>
       </c>
       <c r="P29" s="114" t="str">
@@ -9654,10 +9646,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E30" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9665,7 +9657,7 @@
       </c>
       <c r="F30" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB22Y_Quote#0003</v>
+        <v>CNYSM6AB22Y_Quote#0000</v>
       </c>
       <c r="G30" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9674,17 +9666,17 @@
       <c r="H30" s="19"/>
       <c r="K30" s="52"/>
       <c r="L30" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>22Y</v>
+      </c>
+      <c r="M30" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N30" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>22Y</v>
-      </c>
-      <c r="M30" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N30" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O30" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M30&amp;$N30&amp;$L30</f>
         <v>CNNDIRS22Y</v>
       </c>
       <c r="P30" s="114" t="str">
@@ -9732,10 +9724,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E31" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9743,7 +9735,7 @@
       </c>
       <c r="F31" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB23Y_Quote#0003</v>
+        <v>CNYSM6AB23Y_Quote#0000</v>
       </c>
       <c r="G31" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9752,17 +9744,17 @@
       <c r="H31" s="19"/>
       <c r="K31" s="52"/>
       <c r="L31" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>23Y</v>
+      </c>
+      <c r="M31" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N31" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>23Y</v>
-      </c>
-      <c r="M31" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N31" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M31&amp;$N31&amp;$L31</f>
         <v>CNNDIRS23Y</v>
       </c>
       <c r="P31" s="114" t="str">
@@ -9810,10 +9802,10 @@
         <v>36</v>
       </c>
       <c r="C32" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E32" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9821,7 +9813,7 @@
       </c>
       <c r="F32" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB24Y_Quote#0003</v>
+        <v>CNYSM6AB24Y_Quote#0000</v>
       </c>
       <c r="G32" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9830,17 +9822,17 @@
       <c r="H32" s="19"/>
       <c r="K32" s="52"/>
       <c r="L32" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>24Y</v>
+      </c>
+      <c r="M32" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N32" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>24Y</v>
-      </c>
-      <c r="M32" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N32" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O32" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M32&amp;$N32&amp;$L32</f>
         <v>CNNDIRS24Y</v>
       </c>
       <c r="P32" s="114" t="str">
@@ -9888,10 +9880,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E33" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9899,7 +9891,7 @@
       </c>
       <c r="F33" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB25Y_Quote#0003</v>
+        <v>CNYSM6AB25Y_Quote#0000</v>
       </c>
       <c r="G33" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9908,17 +9900,17 @@
       <c r="H33" s="19"/>
       <c r="K33" s="52"/>
       <c r="L33" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>25Y</v>
+      </c>
+      <c r="M33" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N33" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>25Y</v>
-      </c>
-      <c r="M33" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N33" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M33&amp;$N33&amp;$L33</f>
         <v>CNNDIRS25Y</v>
       </c>
       <c r="P33" s="114" t="str">
@@ -9966,10 +9958,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E34" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9977,7 +9969,7 @@
       </c>
       <c r="F34" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB26Y_Quote#0003</v>
+        <v>CNYSM6AB26Y_Quote#0000</v>
       </c>
       <c r="G34" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9986,17 +9978,17 @@
       <c r="H34" s="19"/>
       <c r="K34" s="52"/>
       <c r="L34" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>26Y</v>
+      </c>
+      <c r="M34" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N34" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>26Y</v>
-      </c>
-      <c r="M34" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N34" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O34" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M34&amp;$N34&amp;$L34</f>
         <v>CNNDIRS26Y</v>
       </c>
       <c r="P34" s="114" t="str">
@@ -10044,10 +10036,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E35" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10055,7 +10047,7 @@
       </c>
       <c r="F35" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB27Y_Quote#0003</v>
+        <v>CNYSM6AB27Y_Quote#0000</v>
       </c>
       <c r="G35" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -10064,17 +10056,17 @@
       <c r="H35" s="19"/>
       <c r="K35" s="52"/>
       <c r="L35" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>27Y</v>
+      </c>
+      <c r="M35" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N35" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>27Y</v>
-      </c>
-      <c r="M35" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N35" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O35" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M35&amp;$N35&amp;$L35</f>
         <v>CNNDIRS27Y</v>
       </c>
       <c r="P35" s="114" t="str">
@@ -10122,10 +10114,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E36" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10133,7 +10125,7 @@
       </c>
       <c r="F36" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB28Y_Quote#0003</v>
+        <v>CNYSM6AB28Y_Quote#0000</v>
       </c>
       <c r="G36" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -10142,17 +10134,17 @@
       <c r="H36" s="19"/>
       <c r="K36" s="52"/>
       <c r="L36" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>28Y</v>
+      </c>
+      <c r="M36" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N36" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>28Y</v>
-      </c>
-      <c r="M36" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N36" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O36" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M36&amp;$N36&amp;$L36</f>
         <v>CNNDIRS28Y</v>
       </c>
       <c r="P36" s="114" t="str">
@@ -10200,10 +10192,10 @@
         <v>31</v>
       </c>
       <c r="C37" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E37" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10211,7 +10203,7 @@
       </c>
       <c r="F37" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB29Y_Quote#0003</v>
+        <v>CNYSM6AB29Y_Quote#0000</v>
       </c>
       <c r="G37" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -10220,17 +10212,17 @@
       <c r="H37" s="19"/>
       <c r="K37" s="52"/>
       <c r="L37" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>29Y</v>
+      </c>
+      <c r="M37" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N37" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>29Y</v>
-      </c>
-      <c r="M37" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N37" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O37" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M37&amp;$N37&amp;$L37</f>
         <v>CNNDIRS29Y</v>
       </c>
       <c r="P37" s="114" t="str">
@@ -10278,10 +10270,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E38" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10289,7 +10281,7 @@
       </c>
       <c r="F38" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB30Y_Quote#0003</v>
+        <v>CNYSM6AB30Y_Quote#0000</v>
       </c>
       <c r="G38" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -10298,17 +10290,17 @@
       <c r="H38" s="19"/>
       <c r="K38" s="52"/>
       <c r="L38" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>30Y</v>
+      </c>
+      <c r="M38" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N38" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>30Y</v>
-      </c>
-      <c r="M38" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N38" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O38" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M38&amp;$N38&amp;$L38</f>
         <v>CNNDIRS30Y</v>
       </c>
       <c r="P38" s="114" t="str">
@@ -10356,10 +10348,10 @@
         <v>29</v>
       </c>
       <c r="C39" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E39" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10367,7 +10359,7 @@
       </c>
       <c r="F39" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB35Y_Quote#0003</v>
+        <v>CNYSM6AB35Y_Quote#0000</v>
       </c>
       <c r="G39" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -10376,17 +10368,17 @@
       <c r="H39" s="19"/>
       <c r="K39" s="52"/>
       <c r="L39" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>35Y</v>
+      </c>
+      <c r="M39" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N39" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O39" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>35Y</v>
-      </c>
-      <c r="M39" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N39" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O39" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M39&amp;$N39&amp;$L39</f>
         <v>CNNDIRS35Y</v>
       </c>
       <c r="P39" s="114" t="str">
@@ -10434,10 +10426,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E40" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10445,7 +10437,7 @@
       </c>
       <c r="F40" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB40Y_Quote#0003</v>
+        <v>CNYSM6AB40Y_Quote#0000</v>
       </c>
       <c r="G40" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -10454,17 +10446,17 @@
       <c r="H40" s="19"/>
       <c r="K40" s="52"/>
       <c r="L40" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>40Y</v>
+      </c>
+      <c r="M40" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O40" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>40Y</v>
-      </c>
-      <c r="M40" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N40" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O40" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M40&amp;$N40&amp;$L40</f>
         <v>CNNDIRS40Y</v>
       </c>
       <c r="P40" s="114" t="str">
@@ -10512,10 +10504,10 @@
         <v>26</v>
       </c>
       <c r="C41" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E41" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10523,7 +10515,7 @@
       </c>
       <c r="F41" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB50Y_Quote#0003</v>
+        <v>CNYSM6AB50Y_Quote#0000</v>
       </c>
       <c r="G41" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -10532,17 +10524,17 @@
       <c r="H41" s="19"/>
       <c r="K41" s="52"/>
       <c r="L41" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>50Y</v>
+      </c>
+      <c r="M41" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N41" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O41" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>50Y</v>
-      </c>
-      <c r="M41" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N41" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O41" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M41&amp;$N41&amp;$L41</f>
         <v>CNNDIRS50Y</v>
       </c>
       <c r="P41" s="114" t="str">
@@ -10590,10 +10582,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E42" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10601,7 +10593,7 @@
       </c>
       <c r="F42" s="25" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSM6AB60Y_Quote#0003</v>
+        <v>CNYSM6AB60Y_Quote#0000</v>
       </c>
       <c r="G42" s="24" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -10610,17 +10602,17 @@
       <c r="H42" s="19"/>
       <c r="K42" s="52"/>
       <c r="L42" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>60Y</v>
+      </c>
+      <c r="M42" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="N42" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="O42" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>60Y</v>
-      </c>
-      <c r="M42" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="N42" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="O42" s="114" t="str">
-        <f>SUBSTITUTE(Currency,"Y","")&amp;$M42&amp;$N42&amp;$L42</f>
         <v>CNNDIRS60Y</v>
       </c>
       <c r="P42" s="114" t="str">
@@ -10704,7 +10696,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>Contributors</formula1>
     </dataValidation>
@@ -10716,6 +10708,850 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AC14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="2.140625" style="264" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="264" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="264" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="264" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="264" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="264" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="264" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="264" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="264" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="264" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="264" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7" style="264" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="264" customWidth="1"/>
+    <col min="20" max="20" width="11" style="264" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="264" customWidth="1"/>
+    <col min="22" max="22" width="8" style="264" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="264" customWidth="1"/>
+    <col min="24" max="24" width="8" style="264" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" style="264" customWidth="1"/>
+    <col min="26" max="27" width="10.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="2.7109375" style="264" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="264"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" s="249" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="264"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="264"/>
+    </row>
+    <row r="2" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="253"/>
+    </row>
+    <row r="3" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="258" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(J5:L10,SerializationPath&amp;#REF!,FileOverwrite,,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="257"/>
+    </row>
+    <row r="4" spans="2:29" s="249" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="254"/>
+      <c r="C4" s="270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="270" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="270" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="270" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="270" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="270" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="270" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="270" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="270" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="270" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="271"/>
+      <c r="N4" s="334" t="str">
+        <f>_xll.RData(N5:N12,O4:P4,"RTFEED:IDN",,,O5)</f>
+        <v>Updated at 16:27:20</v>
+      </c>
+      <c r="O4" s="335" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" s="335" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="335" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" s="336" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="256"/>
+      <c r="T4" s="334" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" s="335" t="s">
+        <v>174</v>
+      </c>
+      <c r="V4" s="335" t="s">
+        <v>173</v>
+      </c>
+      <c r="W4" s="336" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" s="337"/>
+      <c r="Y4" s="257"/>
+    </row>
+    <row r="5" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="254"/>
+      <c r="C5" s="278" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="338">
+        <v>0</v>
+      </c>
+      <c r="E5" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="362" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="338" t="str">
+        <f t="shared" ref="I5:I12" si="0">Currency&amp;FamilyName&amp;C5</f>
+        <v>CNYShiborON</v>
+      </c>
+      <c r="J5" s="260"/>
+      <c r="K5" s="261" t="str">
+        <f>_xll.qlIborIndex(I5,FamilyName,"1D",D5,Currency,E5,F5,G5,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShiborON#0000</v>
+      </c>
+      <c r="L5" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C5&amp;$L$4,K5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShiborONLastFixing_Quote#0000</v>
+      </c>
+      <c r="M5" s="256"/>
+      <c r="N5" s="339" t="str">
+        <f t="shared" ref="N5:N12" si="1">"SHI"&amp;Currency&amp;C5&amp;$N$3&amp;"D="</f>
+        <v>SHICNYOND=</v>
+      </c>
+      <c r="O5" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P5" s="341">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="Q5" s="341" t="b">
+        <f t="shared" ref="Q5:Q12" si="2">IF(AND(ISNUMBER($P5),$P5&lt;&gt;0%),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="342" t="b">
+        <f>IF($Q5,_xll.qlIndexAddFixings($K5,$O5,$P5/100,TRUE,ISERROR($T5)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="256"/>
+      <c r="T5" s="339" t="e">
+        <f>_xll.qlIndexFixing($K5,$O5,TRUE,$Q5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U5" s="343">
+        <f>IF($R5,_xll.qlIndexFixing($K5,$O5,FALSE,$Q5),"-")</f>
+        <v>2.759E-2</v>
+      </c>
+      <c r="V5" s="343" t="e">
+        <f t="shared" ref="V5:V12" si="3">T5-U5</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W5" s="344" t="e">
+        <f>_xll.qlIndexFixing($K5,$O5,TRUE,$U5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X5" s="345">
+        <f t="shared" ref="X5:X12" si="4">IF(ISERROR(V5),0,ABS(V5))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="257"/>
+    </row>
+    <row r="6" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="254"/>
+      <c r="C6" s="278" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="338">
+        <v>0</v>
+      </c>
+      <c r="E6" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="362" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShiborSW</v>
+      </c>
+      <c r="J6" s="260"/>
+      <c r="K6" s="261" t="str">
+        <f>_xll.qlIborIndex(I6,FamilyName,"1W",D6,Currency,E6,F6,G6,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShiborSW#0000</v>
+      </c>
+      <c r="L6" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C6&amp;$L$4,K6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShiborSWLastFixing_Quote#0000</v>
+      </c>
+      <c r="M6" s="256"/>
+      <c r="N6" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNYSWD=</v>
+      </c>
+      <c r="O6" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P6" s="341">
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="Q6" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="342" t="b">
+        <f>IF($Q6,_xll.qlIndexAddFixings($K6,$O6,$P6/100,TRUE,ISERROR($T6)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="256"/>
+      <c r="T6" s="339" t="e">
+        <f>_xll.qlIndexFixing($K6,$O6,TRUE,$Q6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U6" s="343">
+        <f>IF($R6,_xll.qlIndexFixing($K6,$O6,FALSE,$Q6),"-")</f>
+        <v>3.4020000000000002E-2</v>
+      </c>
+      <c r="V6" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W6" s="344" t="e">
+        <f>_xll.qlIndexFixing($K6,$O6,TRUE,$U6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X6" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="257"/>
+    </row>
+    <row r="7" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="254"/>
+      <c r="C7" s="278" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="338">
+        <v>0</v>
+      </c>
+      <c r="E7" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="362" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor2W</v>
+      </c>
+      <c r="J7" s="260"/>
+      <c r="K7" s="261" t="str">
+        <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor2W#0000</v>
+      </c>
+      <c r="L7" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C7&amp;$L$4,K7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor2WLastFixing_Quote#0000</v>
+      </c>
+      <c r="M7" s="256"/>
+      <c r="N7" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY2WD=</v>
+      </c>
+      <c r="O7" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P7" s="341">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="Q7" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="342" t="b">
+        <f>IF($Q7,_xll.qlIndexAddFixings($K7,$O7,$P7/100,TRUE,ISERROR($T7)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="256"/>
+      <c r="T7" s="339" t="e">
+        <f>_xll.qlIndexFixing($K7,$O7,TRUE,$Q7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U7" s="343">
+        <f>IF($R7,_xll.qlIndexFixing($K7,$O7,FALSE,$Q7),"-")</f>
+        <v>4.5780000000000001E-2</v>
+      </c>
+      <c r="V7" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W7" s="344" t="e">
+        <f>_xll.qlIndexFixing($K7,$O7,TRUE,$U7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X7" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="257"/>
+    </row>
+    <row r="8" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="254"/>
+      <c r="C8" s="278" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="338">
+        <v>0</v>
+      </c>
+      <c r="E8" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="362" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor1M</v>
+      </c>
+      <c r="J8" s="260"/>
+      <c r="K8" s="261" t="str">
+        <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor1M#0000</v>
+      </c>
+      <c r="L8" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C8&amp;$L$4,K8,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor1MLastFixing_Quote#0000</v>
+      </c>
+      <c r="M8" s="256"/>
+      <c r="N8" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY1MD=</v>
+      </c>
+      <c r="O8" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P8" s="341">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="Q8" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="342" t="b">
+        <f>IF($Q8,_xll.qlIndexAddFixings($K8,$O8,$P8/100,TRUE,ISERROR($T8)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="256"/>
+      <c r="T8" s="339" t="e">
+        <f>_xll.qlIndexFixing($K8,$O8,TRUE,$Q8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U8" s="343">
+        <f>IF($R8,_xll.qlIndexFixing($K8,$O8,FALSE,$Q8),"-")</f>
+        <v>5.4349999999999996E-2</v>
+      </c>
+      <c r="V8" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W8" s="344" t="e">
+        <f>_xll.qlIndexFixing($K8,$O8,TRUE,$U8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X8" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="257"/>
+    </row>
+    <row r="9" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="254"/>
+      <c r="C9" s="278" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="338">
+        <v>0</v>
+      </c>
+      <c r="E9" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="362" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor3M</v>
+      </c>
+      <c r="J9" s="260" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNY3M#0000</v>
+      </c>
+      <c r="K9" s="261" t="str">
+        <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor3M#0000</v>
+      </c>
+      <c r="L9" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C9&amp;$L$4,K9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor3MLastFixing_Quote#0000</v>
+      </c>
+      <c r="M9" s="256"/>
+      <c r="N9" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY3MD=</v>
+      </c>
+      <c r="O9" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P9" s="341">
+        <v>4.7751000000000001</v>
+      </c>
+      <c r="Q9" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="342" t="b">
+        <f>IF($Q9,_xll.qlIndexAddFixings($K9,$O9,$P9/100,TRUE,ISERROR($T9)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="256"/>
+      <c r="T9" s="339" t="e">
+        <f>_xll.qlIndexFixing($K9,$O9,TRUE,$Q9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U9" s="343">
+        <f>IF($R9,_xll.qlIndexFixing($K9,$O9,FALSE,$Q9),"-")</f>
+        <v>4.7751000000000002E-2</v>
+      </c>
+      <c r="V9" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W9" s="344" t="e">
+        <f>_xll.qlIndexFixing($K9,$O9,TRUE,$U9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X9" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="257"/>
+    </row>
+    <row r="10" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="254"/>
+      <c r="C10" s="278" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="338">
+        <v>0</v>
+      </c>
+      <c r="E10" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="362" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor6M</v>
+      </c>
+      <c r="J10" s="260"/>
+      <c r="K10" s="261" t="str">
+        <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor6M#0000</v>
+      </c>
+      <c r="L10" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C10&amp;$L$4,K10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor6MLastFixing_Quote#0000</v>
+      </c>
+      <c r="M10" s="256"/>
+      <c r="N10" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY6MD=</v>
+      </c>
+      <c r="O10" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P10" s="341">
+        <v>4.9138999999999999</v>
+      </c>
+      <c r="Q10" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="342" t="b">
+        <f>IF($Q10,_xll.qlIndexAddFixings($K10,$O10,$P10/100,TRUE,ISERROR($T10)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="256"/>
+      <c r="T10" s="339" t="e">
+        <f>_xll.qlIndexFixing($K10,$O10,TRUE,$Q10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U10" s="343">
+        <f>IF($R10,_xll.qlIndexFixing($K10,$O10,FALSE,$Q10),"-")</f>
+        <v>4.9139000000000002E-2</v>
+      </c>
+      <c r="V10" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W10" s="344" t="e">
+        <f>_xll.qlIndexFixing($K10,$O10,TRUE,$U10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X10" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="257"/>
+    </row>
+    <row r="11" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="254"/>
+      <c r="C11" s="278" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="338">
+        <v>0</v>
+      </c>
+      <c r="E11" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="362" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor9M</v>
+      </c>
+      <c r="J11" s="260"/>
+      <c r="K11" s="261" t="str">
+        <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,Currency,E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor9M#0000</v>
+      </c>
+      <c r="L11" s="261" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C11&amp;$L$4,K11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor9MLastFixing_Quote#0000</v>
+      </c>
+      <c r="M11" s="256"/>
+      <c r="N11" s="339" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY9MD=</v>
+      </c>
+      <c r="O11" s="340">
+        <v>41810</v>
+      </c>
+      <c r="P11" s="341">
+        <v>4.9795999999999996</v>
+      </c>
+      <c r="Q11" s="341" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="342" t="b">
+        <f>IF($Q11,_xll.qlIndexAddFixings($K11,$O11,$P11/100,TRUE,ISERROR($T11)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="255"/>
+      <c r="T11" s="339" t="e">
+        <f>_xll.qlIndexFixing($K11,$O11,TRUE,$Q11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U11" s="343">
+        <f>IF($R11,_xll.qlIndexFixing($K11,$O11,FALSE,$Q11),"-")</f>
+        <v>4.9795999999999993E-2</v>
+      </c>
+      <c r="V11" s="343" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W11" s="344" t="e">
+        <f>_xll.qlIndexFixing($K11,$O11,TRUE,$U11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X11" s="346">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="257"/>
+    </row>
+    <row r="12" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="254"/>
+      <c r="C12" s="278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="338">
+        <v>0</v>
+      </c>
+      <c r="E12" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="362" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="338" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="338" t="str">
+        <f t="shared" si="0"/>
+        <v>CNYShibor1Y</v>
+      </c>
+      <c r="J12" s="260"/>
+      <c r="K12" s="261" t="str">
+        <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,Currency,E12,F12,G12,H12,J12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShibor1Y#0000</v>
+      </c>
+      <c r="L12" s="259" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C12&amp;$L$4,K12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor1YLastFixing_Quote#0000</v>
+      </c>
+      <c r="M12" s="256"/>
+      <c r="N12" s="347" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY1YD=</v>
+      </c>
+      <c r="O12" s="348">
+        <v>41810</v>
+      </c>
+      <c r="P12" s="349">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="349" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="350" t="b">
+        <f>IF($Q12,_xll.qlIndexAddFixings($K12,$O12,$P12/100,TRUE,ISERROR($T12)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="255"/>
+      <c r="T12" s="347" t="e">
+        <f>_xll.qlIndexFixing($K12,$O12,TRUE,$Q12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U12" s="351">
+        <f>IF($R12,_xll.qlIndexFixing($K12,$O12,FALSE,$Q12),"-")</f>
+        <v>0.05</v>
+      </c>
+      <c r="V12" s="351" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W12" s="352" t="e">
+        <f>_xll.qlIndexFixing($K12,$O12,TRUE,$U12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X12" s="353">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="257"/>
+    </row>
+    <row r="13" spans="2:29" s="249" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="255"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="269"/>
+      <c r="O13" s="269"/>
+      <c r="P13" s="269"/>
+      <c r="Q13" s="269"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="269"/>
+      <c r="U13" s="269"/>
+      <c r="V13" s="269"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="354"/>
+    </row>
+    <row r="14" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="264"/>
+      <c r="L14" s="355"/>
+      <c r="M14" s="355"/>
+      <c r="N14" s="356"/>
+      <c r="O14" s="356"/>
+      <c r="P14" s="355"/>
+      <c r="Q14" s="356"/>
+      <c r="R14" s="356"/>
+      <c r="S14" s="356"/>
+      <c r="T14" s="356"/>
+      <c r="U14" s="356"/>
+      <c r="V14" s="356"/>
+      <c r="W14" s="356"/>
+      <c r="X14" s="356"/>
+      <c r="Y14" s="355"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V5:V12">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F12">
+      <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H12">
+      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E12">
+      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC9"/>
   <sheetViews>
@@ -10729,8 +11565,9 @@
     <col min="5" max="5" width="9.7109375" style="264" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="264" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="264" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="264" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" style="264" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="264" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="264" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="264" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.85546875" style="264" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" style="264" customWidth="1"/>
@@ -10811,10 +11648,10 @@
       <c r="L3" s="256"/>
       <c r="M3" s="256"/>
       <c r="N3" s="265" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O3" s="265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P3" s="256"/>
       <c r="Q3" s="256"/>
@@ -10833,22 +11670,22 @@
         <v>23</v>
       </c>
       <c r="D4" s="270" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="270" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="F4" s="270" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="270" t="s">
-        <v>196</v>
-      </c>
       <c r="G4" s="270" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="270" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="270" t="s">
-        <v>199</v>
-      </c>
       <c r="I4" s="270" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="270" t="s">
         <v>182</v>
@@ -10862,13 +11699,13 @@
       <c r="M4" s="271"/>
       <c r="N4" s="334" t="str">
         <f>_xll.RData(N5:N7,O4:P4,"RTFEED:IDN",,,O5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="O4" s="335" t="s">
         <v>178</v>
       </c>
       <c r="P4" s="335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="335" t="s">
         <v>177</v>
@@ -10894,17 +11731,17 @@
     </row>
     <row r="5" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="254"/>
-      <c r="C5" s="361" t="s">
-        <v>212</v>
+      <c r="C5" s="362" t="s">
+        <v>211</v>
       </c>
       <c r="D5" s="362">
         <v>0</v>
       </c>
       <c r="E5" s="362" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="362" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G5" s="362" t="b">
         <v>1</v>
@@ -10916,14 +11753,14 @@
         <f>PROPER(Currency)&amp;"Repo"&amp;C5</f>
         <v>CnyRepo1D</v>
       </c>
-      <c r="J5" s="362"/>
-      <c r="K5" s="362" t="str">
+      <c r="J5" s="260"/>
+      <c r="K5" s="261" t="str">
         <f>_xll.qlIborIndex(I5,FamilyName,"1D",D5,Currency,E5,F5,G5,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYRepo1D#0010</v>
-      </c>
-      <c r="L5" s="362" t="str">
+        <v>CnyRepo1D#0000</v>
+      </c>
+      <c r="L5" s="261" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;"Repo"&amp;C5&amp;$L$4,K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo1DLastFixing_Quote#0011</v>
+        <v>CnyRepo1DLastFixing_Quote#0000</v>
       </c>
       <c r="M5" s="256"/>
       <c r="N5" s="339" t="str">
@@ -10931,10 +11768,10 @@
         <v>CN1DRPFIX=CFXS</v>
       </c>
       <c r="O5" s="340">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="P5" s="341">
-        <v>2.74</v>
+        <v>2.85</v>
       </c>
       <c r="Q5" s="341" t="b">
         <f t="shared" ref="Q5:Q7" si="0">IF(AND(ISNUMBER($P5),$P5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -10951,7 +11788,7 @@
       </c>
       <c r="U5" s="343">
         <f>IF($R5,_xll.qlIndexFixing($K5,$O5,FALSE,$Q5),"-")</f>
-        <v>2.7400000000000001E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="V5" s="343" t="e">
         <f t="shared" ref="V5:V7" si="1">T5-U5</f>
@@ -10969,17 +11806,17 @@
     </row>
     <row r="6" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="254"/>
-      <c r="C6" s="361" t="s">
-        <v>211</v>
+      <c r="C6" s="362" t="s">
+        <v>210</v>
       </c>
       <c r="D6" s="362">
         <v>0</v>
       </c>
       <c r="E6" s="362" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="362" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G6" s="362" t="b">
         <v>1</v>
@@ -10991,14 +11828,17 @@
         <f>PROPER(Currency)&amp;"Repo"&amp;C6</f>
         <v>CnyRepo7D</v>
       </c>
-      <c r="J6" s="362"/>
-      <c r="K6" s="362" t="str">
+      <c r="J6" s="260" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C6&amp;"REPO",,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNY7DREPO#0000</v>
+      </c>
+      <c r="K6" s="261" t="str">
         <f>_xll.qlIborIndex(I6,FamilyName,"1W",D6,Currency,E6,F6,G6,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYRepo7D#0014</v>
-      </c>
-      <c r="L6" s="362" t="str">
+        <v>CnyRepo7D#0000</v>
+      </c>
+      <c r="L6" s="261" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;"Repo"&amp;C6&amp;$L$4,K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo7DLastFixing_Quote#0017</v>
+        <v>CnyRepo7DLastFixing_Quote#0000</v>
       </c>
       <c r="M6" s="256"/>
       <c r="N6" s="339" t="str">
@@ -11006,10 +11846,10 @@
         <v>CN7DRPFIX=CFXS</v>
       </c>
       <c r="O6" s="340">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="P6" s="341">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="Q6" s="341" t="b">
         <f t="shared" si="0"/>
@@ -11026,7 +11866,7 @@
       </c>
       <c r="U6" s="343">
         <f>IF($R6,_xll.qlIndexFixing($K6,$O6,FALSE,$Q6),"-")</f>
-        <v>3.1800000000000002E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="V6" s="343" t="e">
         <f t="shared" si="1"/>
@@ -11044,17 +11884,17 @@
     </row>
     <row r="7" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="254"/>
-      <c r="C7" s="361" t="s">
-        <v>215</v>
+      <c r="C7" s="362" t="s">
+        <v>214</v>
       </c>
       <c r="D7" s="362">
         <v>0</v>
       </c>
       <c r="E7" s="362" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="362" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G7" s="362" t="b">
         <v>1</v>
@@ -11066,14 +11906,14 @@
         <f>PROPER(Currency)&amp;"Repo"&amp;C7</f>
         <v>CnyRepo14D</v>
       </c>
-      <c r="J7" s="362"/>
-      <c r="K7" s="362" t="str">
+      <c r="J7" s="260"/>
+      <c r="K7" s="261" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYRepo14D#0015</v>
-      </c>
-      <c r="L7" s="362" t="str">
+        <v>CnyRepo14D#0000</v>
+      </c>
+      <c r="L7" s="261" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;"Repo"&amp;C7&amp;$L$4,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo14DLastFixing_Quote#0018</v>
+        <v>CnyRepo14DLastFixing_Quote#0000</v>
       </c>
       <c r="M7" s="256"/>
       <c r="N7" s="339" t="str">
@@ -11081,10 +11921,10 @@
         <v>CN14DRPFIX=CFXS</v>
       </c>
       <c r="O7" s="340">
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="P7" s="341">
-        <v>4.3</v>
+        <v>4.63</v>
       </c>
       <c r="Q7" s="341" t="b">
         <f t="shared" si="0"/>
@@ -11101,7 +11941,7 @@
       </c>
       <c r="U7" s="343">
         <f>IF($R7,_xll.qlIndexFixing($K7,$O7,FALSE,$Q7),"-")</f>
-        <v>4.2999999999999997E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="V7" s="343" t="e">
         <f t="shared" si="1"/>
@@ -11130,18 +11970,18 @@
       <c r="K8" s="263"/>
       <c r="L8" s="263"/>
       <c r="M8" s="263"/>
-      <c r="N8" s="363"/>
-      <c r="O8" s="363"/>
-      <c r="P8" s="363"/>
-      <c r="Q8" s="363"/>
-      <c r="R8" s="363"/>
-      <c r="S8" s="364"/>
-      <c r="T8" s="363"/>
-      <c r="U8" s="363"/>
-      <c r="V8" s="363"/>
-      <c r="W8" s="363"/>
-      <c r="X8" s="363"/>
-      <c r="Y8" s="365"/>
+      <c r="N8" s="359"/>
+      <c r="O8" s="359"/>
+      <c r="P8" s="359"/>
+      <c r="Q8" s="359"/>
+      <c r="R8" s="359"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="359"/>
+      <c r="U8" s="359"/>
+      <c r="V8" s="359"/>
+      <c r="W8" s="359"/>
+      <c r="X8" s="359"/>
+      <c r="Y8" s="361"/>
     </row>
     <row r="9" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K9" s="264"/>
@@ -11162,10 +12002,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V5:V7">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11178,850 +12018,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F7">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="2.140625" style="264" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="264" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="264" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="264" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="264" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="264" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="264" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" style="264" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="264" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="264" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="264" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="264" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="264" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="7" style="264" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="264" customWidth="1"/>
-    <col min="20" max="20" width="11" style="264" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="264" customWidth="1"/>
-    <col min="22" max="22" width="8" style="264" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="264" customWidth="1"/>
-    <col min="24" max="24" width="8" style="264" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.140625" style="264" customWidth="1"/>
-    <col min="26" max="27" width="10.28515625" style="264" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="2.7109375" style="264" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="264"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" s="249" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
-      <c r="U1" s="264"/>
-      <c r="V1" s="264"/>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-    </row>
-    <row r="2" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="250"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="253"/>
-    </row>
-    <row r="3" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="254"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="258" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(J5:L10,SerializationPath&amp;#REF!,FileOverwrite,,Serialize),"---")</f>
-        <v>---</v>
-      </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="257"/>
-    </row>
-    <row r="4" spans="2:29" s="249" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="254"/>
-      <c r="C4" s="270" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="270" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="270" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="270" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="270" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="270" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="270" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="270" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="270" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="270" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="271"/>
-      <c r="N4" s="334" t="str">
-        <f>_xll.RData(N5:N12,O4:P4,"RTFEED:IDN",,,O5)</f>
-        <v>Paused at 12:54:29</v>
-      </c>
-      <c r="O4" s="335" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="335" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="335" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="336" t="s">
-        <v>176</v>
-      </c>
-      <c r="S4" s="256"/>
-      <c r="T4" s="334" t="s">
-        <v>175</v>
-      </c>
-      <c r="U4" s="335" t="s">
-        <v>174</v>
-      </c>
-      <c r="V4" s="335" t="s">
-        <v>173</v>
-      </c>
-      <c r="W4" s="336" t="s">
-        <v>172</v>
-      </c>
-      <c r="X4" s="337"/>
-      <c r="Y4" s="257"/>
-    </row>
-    <row r="5" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="254"/>
-      <c r="C5" s="278" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="338">
-        <v>0</v>
-      </c>
-      <c r="E5" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="338" t="str">
-        <f t="shared" ref="I5:I12" si="0">Currency&amp;FamilyName&amp;C5</f>
-        <v>CNYShiborON</v>
-      </c>
-      <c r="J5" s="260"/>
-      <c r="K5" s="261" t="str">
-        <f>_xll.qlIborIndex(I5,FamilyName,"1D",D5,Currency,E5,F5,G5,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShiborON#0005</v>
-      </c>
-      <c r="L5" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C5&amp;$L$4,K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShiborONLastFixing_Quote#0005</v>
-      </c>
-      <c r="M5" s="256"/>
-      <c r="N5" s="339" t="str">
-        <f t="shared" ref="N5:N12" si="1">"SHI"&amp;Currency&amp;C5&amp;$N$3&amp;"D="</f>
-        <v>SHICNYOND=</v>
-      </c>
-      <c r="O5" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P5" s="341">
-        <v>2.698</v>
-      </c>
-      <c r="Q5" s="341" t="b">
-        <f t="shared" ref="Q5:Q12" si="2">IF(AND(ISNUMBER($P5),$P5&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="342" t="b">
-        <f>IF($Q5,_xll.qlIndexAddFixings($K5,$O5,$P5/100,TRUE,ISERROR($T5)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="256"/>
-      <c r="T5" s="339" t="e">
-        <f>_xll.qlIndexFixing($K5,$O5,TRUE,$Q5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U5" s="343">
-        <f>IF($R5,_xll.qlIndexFixing($K5,$O5,FALSE,$Q5),"-")</f>
-        <v>2.6980000000000001E-2</v>
-      </c>
-      <c r="V5" s="343" t="e">
-        <f t="shared" ref="V5:V12" si="3">T5-U5</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W5" s="344" t="e">
-        <f>_xll.qlIndexFixing($K5,$O5,TRUE,$U5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X5" s="345">
-        <f t="shared" ref="X5:X12" si="4">IF(ISERROR(V5),0,ABS(V5))</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="257"/>
-    </row>
-    <row r="6" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="254"/>
-      <c r="C6" s="278" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="338">
-        <v>0</v>
-      </c>
-      <c r="E6" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShiborSW</v>
-      </c>
-      <c r="J6" s="260"/>
-      <c r="K6" s="261" t="str">
-        <f>_xll.qlIborIndex(I6,FamilyName,"1W",D6,Currency,E6,F6,G6,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShiborSW#0005</v>
-      </c>
-      <c r="L6" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C6&amp;$L$4,K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShiborSWLastFixing_Quote#0005</v>
-      </c>
-      <c r="M6" s="256"/>
-      <c r="N6" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNYSWD=</v>
-      </c>
-      <c r="O6" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P6" s="341">
-        <v>3.093</v>
-      </c>
-      <c r="Q6" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="342" t="b">
-        <f>IF($Q6,_xll.qlIndexAddFixings($K6,$O6,$P6/100,TRUE,ISERROR($T6)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="256"/>
-      <c r="T6" s="339" t="e">
-        <f>_xll.qlIndexFixing($K6,$O6,TRUE,$Q6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U6" s="343">
-        <f>IF($R6,_xll.qlIndexFixing($K6,$O6,FALSE,$Q6),"-")</f>
-        <v>3.0929999999999999E-2</v>
-      </c>
-      <c r="V6" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W6" s="344" t="e">
-        <f>_xll.qlIndexFixing($K6,$O6,TRUE,$U6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X6" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="257"/>
-    </row>
-    <row r="7" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="254"/>
-      <c r="C7" s="278" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="338">
-        <v>0</v>
-      </c>
-      <c r="E7" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor2W</v>
-      </c>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261" t="str">
-        <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor2W#0005</v>
-      </c>
-      <c r="L7" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C7&amp;$L$4,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor2WLastFixing_Quote#0005</v>
-      </c>
-      <c r="M7" s="256"/>
-      <c r="N7" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY2WD=</v>
-      </c>
-      <c r="O7" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P7" s="341">
-        <v>4.03</v>
-      </c>
-      <c r="Q7" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="342" t="b">
-        <f>IF($Q7,_xll.qlIndexAddFixings($K7,$O7,$P7/100,TRUE,ISERROR($T7)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S7" s="256"/>
-      <c r="T7" s="339" t="e">
-        <f>_xll.qlIndexFixing($K7,$O7,TRUE,$Q7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U7" s="343">
-        <f>IF($R7,_xll.qlIndexFixing($K7,$O7,FALSE,$Q7),"-")</f>
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="V7" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W7" s="344" t="e">
-        <f>_xll.qlIndexFixing($K7,$O7,TRUE,$U7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X7" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="257"/>
-    </row>
-    <row r="8" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="254"/>
-      <c r="C8" s="278" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="338">
-        <v>0</v>
-      </c>
-      <c r="E8" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor1M</v>
-      </c>
-      <c r="J8" s="260"/>
-      <c r="K8" s="261" t="str">
-        <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor1M#0005</v>
-      </c>
-      <c r="L8" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C8&amp;$L$4,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor1MLastFixing_Quote#0005</v>
-      </c>
-      <c r="M8" s="256"/>
-      <c r="N8" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY1MD=</v>
-      </c>
-      <c r="O8" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P8" s="341">
-        <v>5.2329999999999997</v>
-      </c>
-      <c r="Q8" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="342" t="b">
-        <f>IF($Q8,_xll.qlIndexAddFixings($K8,$O8,$P8/100,TRUE,ISERROR($T8)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="256"/>
-      <c r="T8" s="339" t="e">
-        <f>_xll.qlIndexFixing($K8,$O8,TRUE,$Q8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U8" s="343">
-        <f>IF($R8,_xll.qlIndexFixing($K8,$O8,FALSE,$Q8),"-")</f>
-        <v>5.2329999999999995E-2</v>
-      </c>
-      <c r="V8" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W8" s="344" t="e">
-        <f>_xll.qlIndexFixing($K8,$O8,TRUE,$U8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X8" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="257"/>
-    </row>
-    <row r="9" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="254"/>
-      <c r="C9" s="278" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="338">
-        <v>0</v>
-      </c>
-      <c r="E9" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor3M</v>
-      </c>
-      <c r="J9" s="260" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3M#0004</v>
-      </c>
-      <c r="K9" s="261" t="str">
-        <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor3M#0004</v>
-      </c>
-      <c r="L9" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C9&amp;$L$4,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor3MLastFixing_Quote#0004</v>
-      </c>
-      <c r="M9" s="256"/>
-      <c r="N9" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY3MD=</v>
-      </c>
-      <c r="O9" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P9" s="341">
-        <v>4.7691999999999997</v>
-      </c>
-      <c r="Q9" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="342" t="b">
-        <f>IF($Q9,_xll.qlIndexAddFixings($K9,$O9,$P9/100,TRUE,ISERROR($T9)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S9" s="256"/>
-      <c r="T9" s="339" t="e">
-        <f>_xll.qlIndexFixing($K9,$O9,TRUE,$Q9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U9" s="343">
-        <f>IF($R9,_xll.qlIndexFixing($K9,$O9,FALSE,$Q9),"-")</f>
-        <v>4.7691999999999998E-2</v>
-      </c>
-      <c r="V9" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W9" s="344" t="e">
-        <f>_xll.qlIndexFixing($K9,$O9,TRUE,$U9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X9" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="257"/>
-    </row>
-    <row r="10" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="254"/>
-      <c r="C10" s="278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="338">
-        <v>0</v>
-      </c>
-      <c r="E10" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor6M</v>
-      </c>
-      <c r="J10" s="260"/>
-      <c r="K10" s="261" t="str">
-        <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor6M#0005</v>
-      </c>
-      <c r="L10" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C10&amp;$L$4,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor6MLastFixing_Quote#0005</v>
-      </c>
-      <c r="M10" s="256"/>
-      <c r="N10" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY6MD=</v>
-      </c>
-      <c r="O10" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P10" s="341">
-        <v>4.9215999999999998</v>
-      </c>
-      <c r="Q10" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="342" t="b">
-        <f>IF($Q10,_xll.qlIndexAddFixings($K10,$O10,$P10/100,TRUE,ISERROR($T10)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="256"/>
-      <c r="T10" s="339" t="e">
-        <f>_xll.qlIndexFixing($K10,$O10,TRUE,$Q10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U10" s="343">
-        <f>IF($R10,_xll.qlIndexFixing($K10,$O10,FALSE,$Q10),"-")</f>
-        <v>4.9215999999999996E-2</v>
-      </c>
-      <c r="V10" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W10" s="344" t="e">
-        <f>_xll.qlIndexFixing($K10,$O10,TRUE,$U10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X10" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="257"/>
-    </row>
-    <row r="11" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="254"/>
-      <c r="C11" s="278" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="338">
-        <v>0</v>
-      </c>
-      <c r="E11" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I11" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor9M</v>
-      </c>
-      <c r="J11" s="260"/>
-      <c r="K11" s="261" t="str">
-        <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,Currency,E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor9M#0005</v>
-      </c>
-      <c r="L11" s="261" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C11&amp;$L$4,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor9MLastFixing_Quote#0005</v>
-      </c>
-      <c r="M11" s="256"/>
-      <c r="N11" s="339" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY9MD=</v>
-      </c>
-      <c r="O11" s="340">
-        <v>41809</v>
-      </c>
-      <c r="P11" s="341">
-        <v>4.9805000000000001</v>
-      </c>
-      <c r="Q11" s="341" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="342" t="b">
-        <f>IF($Q11,_xll.qlIndexAddFixings($K11,$O11,$P11/100,TRUE,ISERROR($T11)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="255"/>
-      <c r="T11" s="339" t="e">
-        <f>_xll.qlIndexFixing($K11,$O11,TRUE,$Q11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U11" s="343">
-        <f>IF($R11,_xll.qlIndexFixing($K11,$O11,FALSE,$Q11),"-")</f>
-        <v>4.9805000000000002E-2</v>
-      </c>
-      <c r="V11" s="343" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W11" s="344" t="e">
-        <f>_xll.qlIndexFixing($K11,$O11,TRUE,$U11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X11" s="346">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="257"/>
-    </row>
-    <row r="12" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="254"/>
-      <c r="C12" s="278" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="338">
-        <v>0</v>
-      </c>
-      <c r="E12" s="338" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="338" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="338" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="338" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShibor1Y</v>
-      </c>
-      <c r="J12" s="260"/>
-      <c r="K12" s="261" t="str">
-        <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,Currency,E12,F12,G12,H12,J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor1Y#0005</v>
-      </c>
-      <c r="L12" s="259" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C12&amp;$L$4,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor1YLastFixing_Quote#0005</v>
-      </c>
-      <c r="M12" s="256"/>
-      <c r="N12" s="347" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY1YD=</v>
-      </c>
-      <c r="O12" s="348">
-        <v>41809</v>
-      </c>
-      <c r="P12" s="349">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="349" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="350" t="b">
-        <f>IF($Q12,_xll.qlIndexAddFixings($K12,$O12,$P12/100,TRUE,ISERROR($T12)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="255"/>
-      <c r="T12" s="347" t="e">
-        <f>_xll.qlIndexFixing($K12,$O12,TRUE,$Q12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U12" s="351">
-        <f>IF($R12,_xll.qlIndexFixing($K12,$O12,FALSE,$Q12),"-")</f>
-        <v>0.05</v>
-      </c>
-      <c r="V12" s="351" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W12" s="352" t="e">
-        <f>_xll.qlIndexFixing($K12,$O12,TRUE,$U12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X12" s="353">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="257"/>
-    </row>
-    <row r="13" spans="2:29" s="249" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="269"/>
-      <c r="Q13" s="269"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="269"/>
-      <c r="U13" s="269"/>
-      <c r="V13" s="269"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="354"/>
-    </row>
-    <row r="14" spans="2:29" s="249" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="264"/>
-      <c r="L14" s="355"/>
-      <c r="M14" s="355"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="356"/>
-      <c r="P14" s="355"/>
-      <c r="Q14" s="356"/>
-      <c r="R14" s="356"/>
-      <c r="S14" s="356"/>
-      <c r="T14" s="356"/>
-      <c r="U14" s="356"/>
-      <c r="V14" s="356"/>
-      <c r="W14" s="356"/>
-      <c r="X14" s="356"/>
-      <c r="Y14" s="355"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="V5:V12">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F12">
-      <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H12">
-      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E12">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12080,7 +12076,7 @@
       <c r="O1" s="133"/>
       <c r="P1" s="132">
         <f>_xll.ohTrigger(P3:P16)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="98"/>
       <c r="R1" s="12"/>
@@ -12110,7 +12106,7 @@
       <c r="I2" s="129"/>
       <c r="J2" s="106" t="str">
         <f>_xll.RData(J3:J20,K2:K2,,ReutersRtMode,,K3)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="K2" s="357" t="s">
         <v>140</v>
@@ -12145,7 +12141,7 @@
       </c>
       <c r="D3" s="40" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOND_Quote#0003</v>
+        <v>CNYOND_Quote#0000</v>
       </c>
       <c r="E3" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -12161,7 +12157,7 @@
         <v>SHICNYOND=</v>
       </c>
       <c r="K3" s="358">
-        <v>2.698</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="L3" s="111"/>
       <c r="M3" s="124">
@@ -12170,11 +12166,11 @@
       <c r="N3" s="111"/>
       <c r="O3" s="169">
         <f t="array" ref="O3:O20">QuoteLive</f>
-        <v>2.698</v>
-      </c>
-      <c r="P3" s="122" t="e">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="P3" s="122">
         <f>_xll.qlSimpleQuoteSetValue(D3,O3/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="98"/>
       <c r="R3" s="12"/>
@@ -12195,7 +12191,7 @@
       </c>
       <c r="D4" s="40" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYTND_Quote#0003</v>
+        <v>CNYTND_Quote#0000</v>
       </c>
       <c r="E4" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -12244,7 +12240,7 @@
       </c>
       <c r="D5" s="40" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSND_Quote#0003</v>
+        <v>CNYSND_Quote#0000</v>
       </c>
       <c r="E5" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -12293,7 +12289,7 @@
       </c>
       <c r="D6" s="40" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSWD_Quote#0003</v>
+        <v>CNYSWD_Quote#0000</v>
       </c>
       <c r="E6" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -12309,7 +12305,7 @@
         <v>SHICNYSWD=</v>
       </c>
       <c r="K6" s="315">
-        <v>3.093</v>
+        <v>3.4020000000000001</v>
       </c>
       <c r="L6" s="111"/>
       <c r="M6" s="143">
@@ -12317,11 +12313,11 @@
       </c>
       <c r="N6" s="111"/>
       <c r="O6" s="162">
-        <v>3.093</v>
-      </c>
-      <c r="P6" s="108" t="e">
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="P6" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="98"/>
       <c r="R6" s="12"/>
@@ -12342,7 +12338,7 @@
       </c>
       <c r="D7" s="40" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2WD_Quote#0003</v>
+        <v>CNY2WD_Quote#0000</v>
       </c>
       <c r="E7" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -12358,7 +12354,7 @@
         <v>SHICNY2WD=</v>
       </c>
       <c r="K7" s="315">
-        <v>4.03</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="L7" s="111"/>
       <c r="M7" s="143">
@@ -12366,11 +12362,11 @@
       </c>
       <c r="N7" s="111"/>
       <c r="O7" s="162">
-        <v>4.03</v>
-      </c>
-      <c r="P7" s="108" t="e">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="P7" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="98"/>
       <c r="R7" s="12"/>
@@ -12391,7 +12387,7 @@
       </c>
       <c r="D8" s="40" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3WD_Quote#0003</v>
+        <v>CNY3WD_Quote#0000</v>
       </c>
       <c r="E8" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -12440,7 +12436,7 @@
       </c>
       <c r="D9" s="40" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1MD_Quote#0003</v>
+        <v>CNY1MD_Quote#0000</v>
       </c>
       <c r="E9" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -12456,7 +12452,7 @@
         <v>SHICNY1MD=</v>
       </c>
       <c r="K9" s="315">
-        <v>5.2329999999999997</v>
+        <v>5.4349999999999996</v>
       </c>
       <c r="L9" s="111"/>
       <c r="M9" s="112">
@@ -12464,11 +12460,11 @@
       </c>
       <c r="N9" s="111"/>
       <c r="O9" s="162">
-        <v>5.2329999999999997</v>
-      </c>
-      <c r="P9" s="108" t="e">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="P9" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="98"/>
       <c r="R9" s="12"/>
@@ -12489,7 +12485,7 @@
       </c>
       <c r="D10" s="40" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2MD_Quote#0003</v>
+        <v>CNY2MD_Quote#0000</v>
       </c>
       <c r="E10" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -12538,7 +12534,7 @@
       </c>
       <c r="D11" s="40" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3MD_Quote#0003</v>
+        <v>CNY3MD_Quote#0000</v>
       </c>
       <c r="E11" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -12554,7 +12550,7 @@
         <v>SHICNY3MD=</v>
       </c>
       <c r="K11" s="315">
-        <v>4.7691999999999997</v>
+        <v>4.7751000000000001</v>
       </c>
       <c r="L11" s="111"/>
       <c r="M11" s="112">
@@ -12562,11 +12558,11 @@
       </c>
       <c r="N11" s="111"/>
       <c r="O11" s="162">
-        <v>4.7691999999999997</v>
-      </c>
-      <c r="P11" s="108" t="e">
+        <v>4.7751000000000001</v>
+      </c>
+      <c r="P11" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="98"/>
       <c r="R11" s="12"/>
@@ -12587,7 +12583,7 @@
       </c>
       <c r="D12" s="40" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4MD_Quote#0003</v>
+        <v>CNY4MD_Quote#0000</v>
       </c>
       <c r="E12" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -12636,7 +12632,7 @@
       </c>
       <c r="D13" s="40" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5MD_Quote#0003</v>
+        <v>CNY5MD_Quote#0000</v>
       </c>
       <c r="E13" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -12685,7 +12681,7 @@
       </c>
       <c r="D14" s="40" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6MD_Quote#0003</v>
+        <v>CNY6MD_Quote#0000</v>
       </c>
       <c r="E14" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -12701,7 +12697,7 @@
         <v>SHICNY6MD=</v>
       </c>
       <c r="K14" s="315">
-        <v>4.9215999999999998</v>
+        <v>4.9138999999999999</v>
       </c>
       <c r="L14" s="111"/>
       <c r="M14" s="112">
@@ -12709,11 +12705,11 @@
       </c>
       <c r="N14" s="111"/>
       <c r="O14" s="162">
-        <v>4.9215999999999998</v>
-      </c>
-      <c r="P14" s="108" t="e">
+        <v>4.9138999999999999</v>
+      </c>
+      <c r="P14" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D14,O14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="98"/>
       <c r="R14" s="12"/>
@@ -12734,7 +12730,7 @@
       </c>
       <c r="D15" s="40" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7MD_Quote#0003</v>
+        <v>CNY7MD_Quote#0000</v>
       </c>
       <c r="E15" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -12783,7 +12779,7 @@
       </c>
       <c r="D16" s="40" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY8MD_Quote#0003</v>
+        <v>CNY8MD_Quote#0000</v>
       </c>
       <c r="E16" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -12832,7 +12828,7 @@
       </c>
       <c r="D17" s="40" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9MD_Quote#0003</v>
+        <v>CNY9MD_Quote#0000</v>
       </c>
       <c r="E17" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -12848,7 +12844,7 @@
         <v>SHICNY9MD=</v>
       </c>
       <c r="K17" s="315">
-        <v>4.9805000000000001</v>
+        <v>4.9795999999999996</v>
       </c>
       <c r="L17" s="111"/>
       <c r="M17" s="112">
@@ -12856,11 +12852,11 @@
       </c>
       <c r="N17" s="111"/>
       <c r="O17" s="162">
-        <v>4.9805000000000001</v>
-      </c>
-      <c r="P17" s="108" t="e">
+        <v>4.9795999999999996</v>
+      </c>
+      <c r="P17" s="108">
         <f>_xll.qlSimpleQuoteSetValue(D17,O17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="98"/>
       <c r="R17" s="12"/>
@@ -12881,7 +12877,7 @@
       </c>
       <c r="D18" s="40" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY10MD_Quote#0003</v>
+        <v>CNY10MD_Quote#0000</v>
       </c>
       <c r="E18" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -12930,7 +12926,7 @@
       </c>
       <c r="D19" s="40" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY11MD_Quote#0003</v>
+        <v>CNY11MD_Quote#0000</v>
       </c>
       <c r="E19" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12979,7 +12975,7 @@
       </c>
       <c r="D20" s="40" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1YD_Quote#0003</v>
+        <v>CNY1YD_Quote#0000</v>
       </c>
       <c r="E20" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -13005,9 +13001,9 @@
       <c r="O20" s="155">
         <v>5</v>
       </c>
-      <c r="P20" s="116" t="e">
+      <c r="P20" s="116">
         <f>_xll.qlSimpleQuoteSetValue(D20,O20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="12"/>
@@ -13213,7 +13209,7 @@
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
       <c r="O2" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
@@ -13253,7 +13249,7 @@
       <c r="X3" s="55"/>
       <c r="Y3" s="132">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="98"/>
     </row>
@@ -13282,7 +13278,7 @@
       <c r="N4" s="54"/>
       <c r="O4" s="183" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="P4" s="180" t="s">
         <v>128</v>
@@ -13327,7 +13323,7 @@
       </c>
       <c r="F5" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOISSW_Quote#0003</v>
+        <v>CNYOISSW_Quote#0000</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13396,7 +13392,7 @@
       </c>
       <c r="F6" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS2W_Quote#0003</v>
+        <v>CNYOIS2W_Quote#0000</v>
       </c>
       <c r="G6" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13463,7 +13459,7 @@
       </c>
       <c r="F7" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS3W_Quote#0003</v>
+        <v>CNYOIS3W_Quote#0000</v>
       </c>
       <c r="G7" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13530,7 +13526,7 @@
       </c>
       <c r="F8" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS1M_Quote#0003</v>
+        <v>CNYOIS1M_Quote#0000</v>
       </c>
       <c r="G8" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13598,7 +13594,7 @@
       </c>
       <c r="F9" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS2M_Quote#0003</v>
+        <v>CNYOIS2M_Quote#0000</v>
       </c>
       <c r="G9" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13665,7 +13661,7 @@
       </c>
       <c r="F10" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS3M_Quote#0003</v>
+        <v>CNYOIS3M_Quote#0000</v>
       </c>
       <c r="G10" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13732,7 +13728,7 @@
       </c>
       <c r="F11" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS4M_Quote#0003</v>
+        <v>CNYOIS4M_Quote#0000</v>
       </c>
       <c r="G11" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13799,7 +13795,7 @@
       </c>
       <c r="F12" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS5M_Quote#0003</v>
+        <v>CNYOIS5M_Quote#0000</v>
       </c>
       <c r="G12" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13866,7 +13862,7 @@
       </c>
       <c r="F13" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS6M_Quote#0003</v>
+        <v>CNYOIS6M_Quote#0000</v>
       </c>
       <c r="G13" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13933,7 +13929,7 @@
       </c>
       <c r="F14" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS7M_Quote#0003</v>
+        <v>CNYOIS7M_Quote#0000</v>
       </c>
       <c r="G14" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -14000,7 +13996,7 @@
       </c>
       <c r="F15" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS8M_Quote#0003</v>
+        <v>CNYOIS8M_Quote#0000</v>
       </c>
       <c r="G15" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -14067,7 +14063,7 @@
       </c>
       <c r="F16" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS9M_Quote#0003</v>
+        <v>CNYOIS9M_Quote#0000</v>
       </c>
       <c r="G16" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -14134,7 +14130,7 @@
       </c>
       <c r="F17" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS10M_Quote#0003</v>
+        <v>CNYOIS10M_Quote#0000</v>
       </c>
       <c r="G17" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -14201,7 +14197,7 @@
       </c>
       <c r="F18" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS11M_Quote#0003</v>
+        <v>CNYOIS11M_Quote#0000</v>
       </c>
       <c r="G18" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14260,7 +14256,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="248" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="99" t="str">
         <f t="shared" si="0"/>
@@ -14268,7 +14264,7 @@
       </c>
       <c r="F19" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS12M_Quote#0003</v>
+        <v>CNYOIS12M_Quote#0000</v>
       </c>
       <c r="G19" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -14277,7 +14273,7 @@
       <c r="H19" s="19"/>
       <c r="J19" s="52"/>
       <c r="K19" s="115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146" t="s">
@@ -14335,7 +14331,7 @@
       </c>
       <c r="F20" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS13M_Quote#0003</v>
+        <v>CNYOIS13M_Quote#0000</v>
       </c>
       <c r="G20" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -14402,7 +14398,7 @@
       </c>
       <c r="F21" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS14M_Quote#0003</v>
+        <v>CNYOIS14M_Quote#0000</v>
       </c>
       <c r="G21" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -14469,7 +14465,7 @@
       </c>
       <c r="F22" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS15M_Quote#0003</v>
+        <v>CNYOIS15M_Quote#0000</v>
       </c>
       <c r="G22" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -14536,7 +14532,7 @@
       </c>
       <c r="F23" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS16M_Quote#0003</v>
+        <v>CNYOIS16M_Quote#0000</v>
       </c>
       <c r="G23" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -14603,7 +14599,7 @@
       </c>
       <c r="F24" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS17M_Quote#0003</v>
+        <v>CNYOIS17M_Quote#0000</v>
       </c>
       <c r="G24" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -14670,7 +14666,7 @@
       </c>
       <c r="F25" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS18M_Quote#0003</v>
+        <v>CNYOIS18M_Quote#0000</v>
       </c>
       <c r="G25" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -14737,7 +14733,7 @@
       </c>
       <c r="F26" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS19M_Quote#0003</v>
+        <v>CNYOIS19M_Quote#0000</v>
       </c>
       <c r="G26" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -14804,7 +14800,7 @@
       </c>
       <c r="F27" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS20M_Quote#0003</v>
+        <v>CNYOIS20M_Quote#0000</v>
       </c>
       <c r="G27" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -14871,7 +14867,7 @@
       </c>
       <c r="F28" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS21M_Quote#0003</v>
+        <v>CNYOIS21M_Quote#0000</v>
       </c>
       <c r="G28" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -14938,7 +14934,7 @@
       </c>
       <c r="F29" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS22M_Quote#0003</v>
+        <v>CNYOIS22M_Quote#0000</v>
       </c>
       <c r="G29" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -15005,7 +15001,7 @@
       </c>
       <c r="F30" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS23M_Quote#0003</v>
+        <v>CNYOIS23M_Quote#0000</v>
       </c>
       <c r="G30" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -15072,7 +15068,7 @@
       </c>
       <c r="F31" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS2Y_Quote#0003</v>
+        <v>CNYOIS2Y_Quote#0000</v>
       </c>
       <c r="G31" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -15139,7 +15135,7 @@
       </c>
       <c r="F32" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS27M_Quote#0003</v>
+        <v>CNYOIS27M_Quote#0000</v>
       </c>
       <c r="G32" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -15206,7 +15202,7 @@
       </c>
       <c r="F33" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS30M_Quote#0003</v>
+        <v>CNYOIS30M_Quote#0000</v>
       </c>
       <c r="G33" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -15273,7 +15269,7 @@
       </c>
       <c r="F34" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS33M_Quote#0003</v>
+        <v>CNYOIS33M_Quote#0000</v>
       </c>
       <c r="G34" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -15340,7 +15336,7 @@
       </c>
       <c r="F35" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS3Y_Quote#0003</v>
+        <v>CNYOIS3Y_Quote#0000</v>
       </c>
       <c r="G35" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -15407,7 +15403,7 @@
       </c>
       <c r="F36" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS39M_Quote#0003</v>
+        <v>CNYOIS39M_Quote#0000</v>
       </c>
       <c r="G36" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -15474,7 +15470,7 @@
       </c>
       <c r="F37" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS42M_Quote#0003</v>
+        <v>CNYOIS42M_Quote#0000</v>
       </c>
       <c r="G37" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -15541,7 +15537,7 @@
       </c>
       <c r="F38" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS45M_Quote#0003</v>
+        <v>CNYOIS45M_Quote#0000</v>
       </c>
       <c r="G38" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -15608,7 +15604,7 @@
       </c>
       <c r="F39" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS4Y_Quote#0003</v>
+        <v>CNYOIS4Y_Quote#0000</v>
       </c>
       <c r="G39" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -15675,7 +15671,7 @@
       </c>
       <c r="F40" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS51M_Quote#0003</v>
+        <v>CNYOIS51M_Quote#0000</v>
       </c>
       <c r="G40" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -15742,7 +15738,7 @@
       </c>
       <c r="F41" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS54M_Quote#0003</v>
+        <v>CNYOIS54M_Quote#0000</v>
       </c>
       <c r="G41" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -15809,7 +15805,7 @@
       </c>
       <c r="F42" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS57M_Quote#0003</v>
+        <v>CNYOIS57M_Quote#0000</v>
       </c>
       <c r="G42" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -15876,7 +15872,7 @@
       </c>
       <c r="F43" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS5Y_Quote#0003</v>
+        <v>CNYOIS5Y_Quote#0000</v>
       </c>
       <c r="G43" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -15943,7 +15939,7 @@
       </c>
       <c r="F44" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS6Y_Quote#0003</v>
+        <v>CNYOIS6Y_Quote#0000</v>
       </c>
       <c r="G44" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -16010,7 +16006,7 @@
       </c>
       <c r="F45" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS7Y_Quote#0003</v>
+        <v>CNYOIS7Y_Quote#0000</v>
       </c>
       <c r="G45" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -16077,7 +16073,7 @@
       </c>
       <c r="F46" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS8Y_Quote#0003</v>
+        <v>CNYOIS8Y_Quote#0000</v>
       </c>
       <c r="G46" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -16144,7 +16140,7 @@
       </c>
       <c r="F47" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS9Y_Quote#0003</v>
+        <v>CNYOIS9Y_Quote#0000</v>
       </c>
       <c r="G47" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -16211,7 +16207,7 @@
       </c>
       <c r="F48" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS10Y_Quote#0003</v>
+        <v>CNYOIS10Y_Quote#0000</v>
       </c>
       <c r="G48" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -16278,7 +16274,7 @@
       </c>
       <c r="F49" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS12Y_Quote#0003</v>
+        <v>CNYOIS12Y_Quote#0000</v>
       </c>
       <c r="G49" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -16345,7 +16341,7 @@
       </c>
       <c r="F50" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS15Y_Quote#0003</v>
+        <v>CNYOIS15Y_Quote#0000</v>
       </c>
       <c r="G50" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -16412,7 +16408,7 @@
       </c>
       <c r="F51" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS20Y_Quote#0003</v>
+        <v>CNYOIS20Y_Quote#0000</v>
       </c>
       <c r="G51" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -16479,7 +16475,7 @@
       </c>
       <c r="F52" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS25Y_Quote#0003</v>
+        <v>CNYOIS25Y_Quote#0000</v>
       </c>
       <c r="G52" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -16546,7 +16542,7 @@
       </c>
       <c r="F53" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS27Y_Quote#0003</v>
+        <v>CNYOIS27Y_Quote#0000</v>
       </c>
       <c r="G53" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -16613,7 +16609,7 @@
       </c>
       <c r="F54" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS30Y_Quote#0003</v>
+        <v>CNYOIS30Y_Quote#0000</v>
       </c>
       <c r="G54" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -16680,7 +16676,7 @@
       </c>
       <c r="F55" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS35Y_Quote#0003</v>
+        <v>CNYOIS35Y_Quote#0000</v>
       </c>
       <c r="G55" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -16747,7 +16743,7 @@
       </c>
       <c r="F56" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS40Y_Quote#0003</v>
+        <v>CNYOIS40Y_Quote#0000</v>
       </c>
       <c r="G56" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -16814,7 +16810,7 @@
       </c>
       <c r="F57" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS45Y_Quote#0003</v>
+        <v>CNYOIS45Y_Quote#0000</v>
       </c>
       <c r="G57" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -16881,7 +16877,7 @@
       </c>
       <c r="F58" s="99" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOIS50Y_Quote#0003</v>
+        <v>CNYOIS50Y_Quote#0000</v>
       </c>
       <c r="G58" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -17208,7 +17204,7 @@
       <c r="W3" s="55"/>
       <c r="X3" s="132">
         <f>_xll.ohTrigger(X5:X19)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="12"/>
@@ -17235,7 +17231,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="309" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="O4" s="130" t="s">
         <v>128</v>
@@ -17281,7 +17277,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1x4F_Quote#0003</v>
+        <v>CNY1x4F_Quote#0000</v>
       </c>
       <c r="F5" s="281" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -17333,9 +17329,9 @@
         <f t="array" ref="W5:W19">QuoteLive</f>
         <v>4.5500000000000007</v>
       </c>
-      <c r="X5" s="122" t="e">
+      <c r="X5" s="122">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="98"/>
       <c r="Z5" s="12"/>
@@ -17355,7 +17351,7 @@
       </c>
       <c r="E6" s="40" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2x5F_Quote#0003</v>
+        <v>CNY2x5F_Quote#0000</v>
       </c>
       <c r="F6" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -17405,9 +17401,9 @@
       <c r="W6" s="162">
         <v>4.5500000000000007</v>
       </c>
-      <c r="X6" s="108" t="e">
+      <c r="X6" s="108">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="98"/>
       <c r="Z6" s="12"/>
@@ -17427,7 +17423,7 @@
       </c>
       <c r="E7" s="40" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3x6F_Quote#0003</v>
+        <v>CNY3x6F_Quote#0000</v>
       </c>
       <c r="F7" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -17477,9 +17473,9 @@
       <c r="W7" s="162">
         <v>4.6500000000000004</v>
       </c>
-      <c r="X7" s="108" t="e">
+      <c r="X7" s="108">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="98"/>
       <c r="Z7" s="12"/>
@@ -17499,7 +17495,7 @@
       </c>
       <c r="E8" s="40" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4x7F_Quote#0003</v>
+        <v>CNY4x7F_Quote#0000</v>
       </c>
       <c r="F8" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -17549,9 +17545,9 @@
       <c r="W8" s="162">
         <v>4.5500000000000007</v>
       </c>
-      <c r="X8" s="108" t="e">
+      <c r="X8" s="108">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="98"/>
       <c r="Z8" s="12"/>
@@ -17571,7 +17567,7 @@
       </c>
       <c r="E9" s="40" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5x8F_Quote#0003</v>
+        <v>CNY5x8F_Quote#0000</v>
       </c>
       <c r="F9" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -17621,9 +17617,9 @@
       <c r="W9" s="162">
         <v>4.49</v>
       </c>
-      <c r="X9" s="108" t="e">
+      <c r="X9" s="108">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="98"/>
       <c r="Z9" s="12"/>
@@ -17643,7 +17639,7 @@
       </c>
       <c r="E10" s="53" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6x9F_Quote#0003</v>
+        <v>CNY6x9F_Quote#0000</v>
       </c>
       <c r="F10" s="282" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -17693,9 +17689,9 @@
       <c r="W10" s="162">
         <v>4.6300000000000008</v>
       </c>
-      <c r="X10" s="108" t="e">
+      <c r="X10" s="108">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="98"/>
       <c r="Z10" s="12"/>
@@ -17716,7 +17712,7 @@
       </c>
       <c r="E11" s="279" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1x7F_Quote#0003</v>
+        <v>CNY1x7F_Quote#0000</v>
       </c>
       <c r="F11" s="283" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -17789,7 +17785,7 @@
       </c>
       <c r="E12" s="40" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2x8F_Quote#0003</v>
+        <v>CNY2x8F_Quote#0000</v>
       </c>
       <c r="F12" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -17862,7 +17858,7 @@
       </c>
       <c r="E13" s="40" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3x9F_Quote#0003</v>
+        <v>CNY3x9F_Quote#0000</v>
       </c>
       <c r="F13" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -17935,7 +17931,7 @@
       </c>
       <c r="E14" s="40" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4x10F_Quote#0003</v>
+        <v>CNY4x10F_Quote#0000</v>
       </c>
       <c r="F14" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -18008,7 +18004,7 @@
       </c>
       <c r="E15" s="40" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5x11F_Quote#0003</v>
+        <v>CNY5x11F_Quote#0000</v>
       </c>
       <c r="F15" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -18081,7 +18077,7 @@
       </c>
       <c r="E16" s="40" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6x12F_Quote#0003</v>
+        <v>CNY6x12F_Quote#0000</v>
       </c>
       <c r="F16" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -18154,7 +18150,7 @@
       </c>
       <c r="E17" s="40" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9x15F_Quote#0003</v>
+        <v>CNY9x15F_Quote#0000</v>
       </c>
       <c r="F17" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -18227,7 +18223,7 @@
       </c>
       <c r="E18" s="40" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY12x18F_Quote#0003</v>
+        <v>CNY12x18F_Quote#0000</v>
       </c>
       <c r="F18" s="280" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -18300,7 +18296,7 @@
       </c>
       <c r="E19" s="53" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY18x24F_Quote#0003</v>
+        <v>CNY18x24F_Quote#0000</v>
       </c>
       <c r="F19" s="282" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -18600,7 +18596,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="132">
         <f>_xll.ohTrigger(Z6:Z17)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="176"/>
       <c r="AB4" s="12"/>
@@ -18738,7 +18734,7 @@
       </c>
       <c r="F6" s="67" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MN4_Quote#0003</v>
+        <v>CNYFUT1MN4_Quote#0000</v>
       </c>
       <c r="G6" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -18804,13 +18800,13 @@
         <f t="shared" ref="AI6:AI17" si="2">Currency&amp;"FUT"&amp;$AJ$4&amp;$AG6&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CNYFUT1MN4ConvAdj_Quote</v>
       </c>
-      <c r="AJ6" s="101" t="str">
+      <c r="AJ6" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI6,IborIndex,$AG6,$AH6,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MN4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK6" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ6)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MN4_Quote'</v>
       </c>
       <c r="AL6" s="176"/>
     </row>
@@ -18831,7 +18827,7 @@
       </c>
       <c r="F7" s="60" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MQ4_Quote#0003</v>
+        <v>CNYFUT1MQ4_Quote#0000</v>
       </c>
       <c r="G7" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -18893,13 +18889,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MQ4ConvAdj_Quote</v>
       </c>
-      <c r="AJ7" s="101" t="str">
+      <c r="AJ7" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI7,IborIndex,$AG7,$AH7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MQ4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK7" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ7)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ7)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MQ4_Quote'</v>
       </c>
       <c r="AL7" s="176"/>
     </row>
@@ -18920,7 +18916,7 @@
       </c>
       <c r="F8" s="60" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MU4_Quote#0003</v>
+        <v>CNYFUT1MU4_Quote#0000</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -18982,13 +18978,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MU4ConvAdj_Quote</v>
       </c>
-      <c r="AJ8" s="101" t="str">
+      <c r="AJ8" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI8,IborIndex,$AG8,$AH8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MU4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK8" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ8)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ8)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MU4_Quote'</v>
       </c>
       <c r="AL8" s="176"/>
     </row>
@@ -19009,7 +19005,7 @@
       </c>
       <c r="F9" s="60" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MV4_Quote#0003</v>
+        <v>CNYFUT1MV4_Quote#0000</v>
       </c>
       <c r="G9" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -19071,13 +19067,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MV4ConvAdj_Quote</v>
       </c>
-      <c r="AJ9" s="101" t="str">
+      <c r="AJ9" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI9,IborIndex,$AG9,$AH9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MV4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK9" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ9)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ9)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MV4_Quote'</v>
       </c>
       <c r="AL9" s="176"/>
       <c r="AM9" s="235"/>
@@ -19099,7 +19095,7 @@
       </c>
       <c r="F10" s="60" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MX4_Quote#0003</v>
+        <v>CNYFUT1MX4_Quote#0000</v>
       </c>
       <c r="G10" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -19161,13 +19157,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MX4ConvAdj_Quote</v>
       </c>
-      <c r="AJ10" s="101" t="str">
+      <c r="AJ10" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI10,IborIndex,$AG10,$AH10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MX4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK10" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ10)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ10)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MX4_Quote'</v>
       </c>
       <c r="AL10" s="176"/>
     </row>
@@ -19188,7 +19184,7 @@
       </c>
       <c r="F11" s="60" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MZ4_Quote#0003</v>
+        <v>CNYFUT1MZ4_Quote#0000</v>
       </c>
       <c r="G11" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -19250,13 +19246,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MZ4ConvAdj_Quote</v>
       </c>
-      <c r="AJ11" s="101" t="str">
+      <c r="AJ11" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI11,IborIndex,$AG11,$AH11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MZ4ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK11" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ11)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ11)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MZ4_Quote'</v>
       </c>
       <c r="AL11" s="176"/>
     </row>
@@ -19277,7 +19273,7 @@
       </c>
       <c r="F12" s="60" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MF5_Quote#0003</v>
+        <v>CNYFUT1MF5_Quote#0000</v>
       </c>
       <c r="G12" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -19339,13 +19335,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MF5ConvAdj_Quote</v>
       </c>
-      <c r="AJ12" s="101" t="str">
+      <c r="AJ12" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI12,IborIndex,$AG12,$AH12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MF5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK12" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ12)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ12)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MF5_Quote'</v>
       </c>
       <c r="AL12" s="176"/>
     </row>
@@ -19366,7 +19362,7 @@
       </c>
       <c r="F13" s="60" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MG5_Quote#0003</v>
+        <v>CNYFUT1MG5_Quote#0000</v>
       </c>
       <c r="G13" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -19428,13 +19424,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MG5ConvAdj_Quote</v>
       </c>
-      <c r="AJ13" s="101" t="str">
+      <c r="AJ13" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI13,IborIndex,$AG13,$AH13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MG5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK13" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ13)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ13)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MG5_Quote'</v>
       </c>
       <c r="AL13" s="176"/>
     </row>
@@ -19455,7 +19451,7 @@
       </c>
       <c r="F14" s="60" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MH5_Quote#0003</v>
+        <v>CNYFUT1MH5_Quote#0000</v>
       </c>
       <c r="G14" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -19517,13 +19513,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MH5ConvAdj_Quote</v>
       </c>
-      <c r="AJ14" s="101" t="str">
+      <c r="AJ14" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI14,IborIndex,$AG14,$AH14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MH5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK14" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ14)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ14)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MH5_Quote'</v>
       </c>
       <c r="AL14" s="176"/>
     </row>
@@ -19544,7 +19540,7 @@
       </c>
       <c r="F15" s="60" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MJ5_Quote#0003</v>
+        <v>CNYFUT1MJ5_Quote#0000</v>
       </c>
       <c r="G15" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -19606,13 +19602,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MJ5ConvAdj_Quote</v>
       </c>
-      <c r="AJ15" s="101" t="str">
+      <c r="AJ15" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI15,IborIndex,$AG15,$AH15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MJ5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK15" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ15)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ15)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MJ5_Quote'</v>
       </c>
       <c r="AL15" s="176"/>
     </row>
@@ -19633,7 +19629,7 @@
       </c>
       <c r="F16" s="60" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MK5_Quote#0003</v>
+        <v>CNYFUT1MK5_Quote#0000</v>
       </c>
       <c r="G16" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -19695,13 +19691,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MK5ConvAdj_Quote</v>
       </c>
-      <c r="AJ16" s="101" t="str">
+      <c r="AJ16" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI16,IborIndex,$AG16,$AH16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MK5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK16" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ16)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ16)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MK5_Quote'</v>
       </c>
       <c r="AL16" s="176"/>
     </row>
@@ -19722,7 +19718,7 @@
       </c>
       <c r="F17" s="60" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MM5_Quote#0003</v>
+        <v>CNYFUT1MM5_Quote#0000</v>
       </c>
       <c r="G17" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -19784,13 +19780,13 @@
         <f t="shared" si="2"/>
         <v>CNYFUT1MM5ConvAdj_Quote</v>
       </c>
-      <c r="AJ17" s="101" t="str">
+      <c r="AJ17" s="101" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AI17,IborIndex,$AG17,$AH17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT1MM5ConvAdj_Quote#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK17" s="24" t="str">
-        <f>_xll.ohRangeRetrieveError(AJ17)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(AJ17)</f>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'CNYFUT1MM5_Quote'</v>
       </c>
       <c r="AL17" s="176"/>
     </row>
@@ -19965,7 +19961,7 @@
       </c>
       <c r="AH2" s="104" t="str">
         <f>FuturesHWConvAdj!C5</f>
-        <v>CNYHW_Volatility_Quote#0003</v>
+        <v>CNYHW_Volatility_Quote#0000</v>
       </c>
       <c r="AI2" s="55"/>
       <c r="AJ2" s="19"/>
@@ -20007,7 +20003,7 @@
       </c>
       <c r="AH3" s="104" t="str">
         <f>FuturesHWConvAdj!C6</f>
-        <v>CNYHW_MeanReversion_Quote#0003</v>
+        <v>CNYHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="AI3" s="55"/>
       <c r="AJ3" s="19"/>
@@ -20042,7 +20038,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="132">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="176"/>
       <c r="AB4" s="12"/>
@@ -20176,7 +20172,7 @@
       </c>
       <c r="F6" s="67" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MN4_Quote#0003</v>
+        <v>CNYFUT3MN4_Quote#0000</v>
       </c>
       <c r="G6" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -20265,7 +20261,7 @@
       </c>
       <c r="F7" s="60" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MQ4_Quote#0003</v>
+        <v>CNYFUT3MQ4_Quote#0000</v>
       </c>
       <c r="G7" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -20350,7 +20346,7 @@
       </c>
       <c r="F8" s="60" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU4_Quote#0003</v>
+        <v>CNYFUT3MU4_Quote#0000</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -20435,7 +20431,7 @@
       </c>
       <c r="F9" s="60" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MV4_Quote#0003</v>
+        <v>CNYFUT3MV4_Quote#0000</v>
       </c>
       <c r="G9" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -20520,7 +20516,7 @@
       </c>
       <c r="F10" s="60" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MX4_Quote#0003</v>
+        <v>CNYFUT3MX4_Quote#0000</v>
       </c>
       <c r="G10" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -20606,7 +20602,7 @@
       </c>
       <c r="F11" s="60" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ4_Quote#0003</v>
+        <v>CNYFUT3MZ4_Quote#0000</v>
       </c>
       <c r="G11" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -20691,7 +20687,7 @@
       </c>
       <c r="F12" s="60" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MF5_Quote#0003</v>
+        <v>CNYFUT3MF5_Quote#0000</v>
       </c>
       <c r="G12" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -20776,7 +20772,7 @@
       </c>
       <c r="F13" s="60" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MG5_Quote#0003</v>
+        <v>CNYFUT3MG5_Quote#0000</v>
       </c>
       <c r="G13" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -20861,7 +20857,7 @@
       </c>
       <c r="F14" s="60" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH5_Quote#0003</v>
+        <v>CNYFUT3MH5_Quote#0000</v>
       </c>
       <c r="G14" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -20946,7 +20942,7 @@
       </c>
       <c r="F15" s="60" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MJ5_Quote#0003</v>
+        <v>CNYFUT3MJ5_Quote#0000</v>
       </c>
       <c r="G15" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -21031,7 +21027,7 @@
       </c>
       <c r="F16" s="60" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MK5_Quote#0003</v>
+        <v>CNYFUT3MK5_Quote#0000</v>
       </c>
       <c r="G16" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -21116,7 +21112,7 @@
       </c>
       <c r="F17" s="60" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM5_Quote#0003</v>
+        <v>CNYFUT3MM5_Quote#0000</v>
       </c>
       <c r="G17" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -21201,7 +21197,7 @@
       </c>
       <c r="F18" s="60" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU5_Quote#0003</v>
+        <v>CNYFUT3MU5_Quote#0000</v>
       </c>
       <c r="G18" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -21286,7 +21282,7 @@
       </c>
       <c r="F19" s="60" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ5_Quote#0003</v>
+        <v>CNYFUT3MZ5_Quote#0000</v>
       </c>
       <c r="G19" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -21371,7 +21367,7 @@
       </c>
       <c r="F20" s="60" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH6_Quote#0003</v>
+        <v>CNYFUT3MH6_Quote#0000</v>
       </c>
       <c r="G20" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -21456,7 +21452,7 @@
       </c>
       <c r="F21" s="60" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM6_Quote#0003</v>
+        <v>CNYFUT3MM6_Quote#0000</v>
       </c>
       <c r="G21" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -21541,7 +21537,7 @@
       </c>
       <c r="F22" s="60" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU6_Quote#0003</v>
+        <v>CNYFUT3MU6_Quote#0000</v>
       </c>
       <c r="G22" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -21626,7 +21622,7 @@
       </c>
       <c r="F23" s="60" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ6_Quote#0003</v>
+        <v>CNYFUT3MZ6_Quote#0000</v>
       </c>
       <c r="G23" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -21711,7 +21707,7 @@
       </c>
       <c r="F24" s="60" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH7_Quote#0003</v>
+        <v>CNYFUT3MH7_Quote#0000</v>
       </c>
       <c r="G24" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -21796,7 +21792,7 @@
       </c>
       <c r="F25" s="60" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM7_Quote#0003</v>
+        <v>CNYFUT3MM7_Quote#0000</v>
       </c>
       <c r="G25" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -21881,7 +21877,7 @@
       </c>
       <c r="F26" s="60" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU7_Quote#0003</v>
+        <v>CNYFUT3MU7_Quote#0000</v>
       </c>
       <c r="G26" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -21966,7 +21962,7 @@
       </c>
       <c r="F27" s="60" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ7_Quote#0003</v>
+        <v>CNYFUT3MZ7_Quote#0000</v>
       </c>
       <c r="G27" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -22051,7 +22047,7 @@
       </c>
       <c r="F28" s="60" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH8_Quote#0003</v>
+        <v>CNYFUT3MH8_Quote#0000</v>
       </c>
       <c r="G28" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -22136,7 +22132,7 @@
       </c>
       <c r="F29" s="60" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM8_Quote#0003</v>
+        <v>CNYFUT3MM8_Quote#0000</v>
       </c>
       <c r="G29" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -22221,7 +22217,7 @@
       </c>
       <c r="F30" s="60" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU8_Quote#0003</v>
+        <v>CNYFUT3MU8_Quote#0000</v>
       </c>
       <c r="G30" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -22306,7 +22302,7 @@
       </c>
       <c r="F31" s="60" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ8_Quote#0003</v>
+        <v>CNYFUT3MZ8_Quote#0000</v>
       </c>
       <c r="G31" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -22391,7 +22387,7 @@
       </c>
       <c r="F32" s="60" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH9_Quote#0003</v>
+        <v>CNYFUT3MH9_Quote#0000</v>
       </c>
       <c r="G32" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -22476,7 +22472,7 @@
       </c>
       <c r="F33" s="60" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM9_Quote#0003</v>
+        <v>CNYFUT3MM9_Quote#0000</v>
       </c>
       <c r="G33" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -22561,7 +22557,7 @@
       </c>
       <c r="F34" s="60" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU9_Quote#0003</v>
+        <v>CNYFUT3MU9_Quote#0000</v>
       </c>
       <c r="G34" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -22646,7 +22642,7 @@
       </c>
       <c r="F35" s="60" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ9_Quote#0003</v>
+        <v>CNYFUT3MZ9_Quote#0000</v>
       </c>
       <c r="G35" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -22731,7 +22727,7 @@
       </c>
       <c r="F36" s="60" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH0_Quote#0003</v>
+        <v>CNYFUT3MH0_Quote#0000</v>
       </c>
       <c r="G36" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -22816,7 +22812,7 @@
       </c>
       <c r="F37" s="60" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM0_Quote#0003</v>
+        <v>CNYFUT3MM0_Quote#0000</v>
       </c>
       <c r="G37" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -22901,7 +22897,7 @@
       </c>
       <c r="F38" s="60" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU0_Quote#0003</v>
+        <v>CNYFUT3MU0_Quote#0000</v>
       </c>
       <c r="G38" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -22986,7 +22982,7 @@
       </c>
       <c r="F39" s="60" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ0_Quote#0003</v>
+        <v>CNYFUT3MZ0_Quote#0000</v>
       </c>
       <c r="G39" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -23071,7 +23067,7 @@
       </c>
       <c r="F40" s="60" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH1_Quote#0003</v>
+        <v>CNYFUT3MH1_Quote#0000</v>
       </c>
       <c r="G40" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -23156,7 +23152,7 @@
       </c>
       <c r="F41" s="60" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM1_Quote#0003</v>
+        <v>CNYFUT3MM1_Quote#0000</v>
       </c>
       <c r="G41" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -23241,7 +23237,7 @@
       </c>
       <c r="F42" s="60" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU1_Quote#0003</v>
+        <v>CNYFUT3MU1_Quote#0000</v>
       </c>
       <c r="G42" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -23326,7 +23322,7 @@
       </c>
       <c r="F43" s="60" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ1_Quote#0003</v>
+        <v>CNYFUT3MZ1_Quote#0000</v>
       </c>
       <c r="G43" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -23411,7 +23407,7 @@
       </c>
       <c r="F44" s="60" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MH2_Quote#0003</v>
+        <v>CNYFUT3MH2_Quote#0000</v>
       </c>
       <c r="G44" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -23496,7 +23492,7 @@
       </c>
       <c r="F45" s="60" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MM2_Quote#0003</v>
+        <v>CNYFUT3MM2_Quote#0000</v>
       </c>
       <c r="G45" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -23581,7 +23577,7 @@
       </c>
       <c r="F46" s="60" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MU2_Quote#0003</v>
+        <v>CNYFUT3MU2_Quote#0000</v>
       </c>
       <c r="G46" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -23666,7 +23662,7 @@
       </c>
       <c r="F47" s="60" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYFUT3MZ2_Quote#0003</v>
+        <v>CNYFUT3MZ2_Quote#0000</v>
       </c>
       <c r="G47" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -23871,7 +23867,7 @@
       <c r="P3" s="55"/>
       <c r="Q3" s="132">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="12"/>
@@ -23899,16 +23895,16 @@
       <c r="G4" s="135"/>
       <c r="H4" s="175" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Paused at 12:54:29</v>
+        <v>Updated at 16:27:20</v>
       </c>
       <c r="I4" s="202" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="193"/>
-      <c r="K4" s="359" t="s">
+      <c r="K4" s="363" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="360"/>
+      <c r="L4" s="364"/>
       <c r="M4" s="193"/>
       <c r="N4" s="130" t="s">
         <v>145</v>
@@ -23934,7 +23930,7 @@
       </c>
       <c r="C5" s="79" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYHW_Volatility_Quote#0003</v>
+        <v>CNYHW_Volatility_Quote#0000</v>
       </c>
       <c r="D5" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -23990,7 +23986,7 @@
       </c>
       <c r="C6" s="79" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYHW_MeanReversion_Quote#0003</v>
+        <v>CNYHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="D6" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
